--- a/ForegroundJobScheduler/results/offline results/summary dynamic (windows,granularity).xlsx
+++ b/ForegroundJobScheduler/results/offline results/summary dynamic (windows,granularity).xlsx
@@ -11132,19 +11132,19 @@
         <v>0.0</v>
       </c>
       <c r="H333" t="n">
-        <v>0.14800988142486787</v>
+        <v>0.17346310501191697</v>
       </c>
       <c r="I333" t="n">
         <v>0.1452742696883043</v>
       </c>
       <c r="J333" t="n">
-        <v>0.8462513130627363</v>
+        <v>0.846380255002023</v>
       </c>
       <c r="K333" t="n">
-        <v>0.7899159663865546</v>
+        <v>0.7795918367346939</v>
       </c>
       <c r="L333" t="n">
-        <v>0.7813465987021229</v>
+        <v>0.7814131569787678</v>
       </c>
     </row>
     <row r="334">
@@ -11236,13 +11236,13 @@
         <v>0.0</v>
       </c>
       <c r="H336" t="n">
-        <v>0.19553126647801003</v>
+        <v>0.23068449486224288</v>
       </c>
       <c r="I336" t="n">
         <v>0.1919122451267532</v>
       </c>
       <c r="J336" t="n">
-        <v>0.848097983405701</v>
+        <v>0.8482206629860076</v>
       </c>
       <c r="K336" t="n">
         <v>0.7795918367346939</v>

--- a/ForegroundJobScheduler/results/offline results/summary dynamic (windows,granularity).xlsx
+++ b/ForegroundJobScheduler/results/offline results/summary dynamic (windows,granularity).xlsx
@@ -10820,13 +10820,13 @@
         <v>0.0</v>
       </c>
       <c r="H324" t="n">
-        <v>0.1465484403121564</v>
+        <v>0.16967917959619302</v>
       </c>
       <c r="I324" t="n">
         <v>0.14387205484067028</v>
       </c>
       <c r="J324" t="n">
-        <v>0.8462513130627363</v>
+        <v>0.846380255002023</v>
       </c>
       <c r="K324" t="n">
         <v>0.7901234567901234</v>
@@ -11340,19 +11340,19 @@
         <v>0.0</v>
       </c>
       <c r="H339" t="n">
-        <v>0.450934232244624</v>
+        <v>0.5506688846500252</v>
       </c>
       <c r="I339" t="n">
         <v>0.4426670155933921</v>
       </c>
       <c r="J339" t="n">
-        <v>0.8314657685898389</v>
+        <v>0.8315573004039606</v>
       </c>
       <c r="K339" t="n">
-        <v>0.699009900990099</v>
+        <v>0.6338582677165354</v>
       </c>
       <c r="L339" t="n">
-        <v>0.7890576910145197</v>
+        <v>0.7948976184015529</v>
       </c>
     </row>
     <row r="340">

--- a/ForegroundJobScheduler/results/offline results/summary dynamic (windows,granularity).xlsx
+++ b/ForegroundJobScheduler/results/offline results/summary dynamic (windows,granularity).xlsx
@@ -10196,13 +10196,13 @@
         <v>0.0</v>
       </c>
       <c r="H306" t="n">
-        <v>0.14511033389127898</v>
+        <v>0.16762949191784976</v>
       </c>
       <c r="I306" t="n">
         <v>0.1424831084863354</v>
       </c>
       <c r="J306" t="n">
-        <v>0.8462513130627363</v>
+        <v>0.846380255002023</v>
       </c>
       <c r="K306" t="n">
         <v>0.7901234567901234</v>
@@ -10234,13 +10234,13 @@
         <v>0.0</v>
       </c>
       <c r="H307" t="n">
-        <v>0.17447560361944683</v>
+        <v>0.2048560452665095</v>
       </c>
       <c r="I307" t="n">
-        <v>0.1714980895712805</v>
+        <v>0.1714991737097907</v>
       </c>
       <c r="J307" t="n">
-        <v>0.8509856918067366</v>
+        <v>0.8511098581186425</v>
       </c>
       <c r="K307" t="n">
         <v>0.6450617283950617</v>
@@ -10300,13 +10300,13 @@
         <v>0.0</v>
       </c>
       <c r="H309" t="n">
-        <v>0.19170956041771536</v>
+        <v>0.22291036059744118</v>
       </c>
       <c r="I309" t="n">
         <v>0.18823004747431252</v>
       </c>
       <c r="J309" t="n">
-        <v>0.848097983405701</v>
+        <v>0.8482206629860076</v>
       </c>
       <c r="K309" t="n">
         <v>0.7901234567901234</v>
@@ -10338,13 +10338,13 @@
         <v>0.0</v>
       </c>
       <c r="H310" t="n">
-        <v>0.22515246324912755</v>
+        <v>0.2647484144080221</v>
       </c>
       <c r="I310" t="n">
-        <v>0.2212462890237275</v>
+        <v>0.22124737316223772</v>
       </c>
       <c r="J310" t="n">
-        <v>0.8598833100266072</v>
+        <v>0.8599993790530879</v>
       </c>
       <c r="K310" t="n">
         <v>0.6450617283950617</v>
@@ -10404,13 +10404,13 @@
         <v>0.0</v>
       </c>
       <c r="H312" t="n">
-        <v>0.442274295921417</v>
+        <v>0.5314559341558609</v>
       </c>
       <c r="I312" t="n">
         <v>0.43430645412658947</v>
       </c>
       <c r="J312" t="n">
-        <v>0.8314657685898389</v>
+        <v>0.8315573004039606</v>
       </c>
       <c r="K312" t="n">
         <v>0.6412903225806451</v>
@@ -10442,13 +10442,13 @@
         <v>0.0</v>
       </c>
       <c r="H313" t="n">
-        <v>0.456422022066513</v>
+        <v>0.5530102326416354</v>
       </c>
       <c r="I313" t="n">
-        <v>0.4477879124922109</v>
+        <v>0.4479226923461589</v>
       </c>
       <c r="J313" t="n">
-        <v>0.8156668924241701</v>
+        <v>0.8161609374899391</v>
       </c>
       <c r="K313" t="n">
         <v>0.6396508728179551</v>
@@ -10508,13 +10508,13 @@
         <v>0.0</v>
       </c>
       <c r="H315" t="n">
-        <v>0.14583960488545286</v>
+        <v>0.16866708580074558</v>
       </c>
       <c r="I315" t="n">
         <v>0.14318641404765112</v>
       </c>
       <c r="J315" t="n">
-        <v>0.8462513130627363</v>
+        <v>0.846380255002023</v>
       </c>
       <c r="K315" t="n">
         <v>0.7901234567901234</v>
@@ -10546,19 +10546,19 @@
         <v>0.0</v>
       </c>
       <c r="H316" t="n">
-        <v>0.17536901387749473</v>
+        <v>0.2061798053671275</v>
       </c>
       <c r="I316" t="n">
-        <v>0.17236235459255067</v>
+        <v>0.17236344358106184</v>
       </c>
       <c r="J316" t="n">
-        <v>0.8509856918067366</v>
+        <v>0.8511098581186425</v>
       </c>
       <c r="K316" t="n">
-        <v>0.6958041958041958</v>
+        <v>0.6722408026755853</v>
       </c>
       <c r="L316" t="n">
-        <v>0.7104806199962096</v>
+        <v>0.7105261809742878</v>
       </c>
     </row>
     <row r="317">
@@ -10612,13 +10612,13 @@
         <v>0.0</v>
       </c>
       <c r="H318" t="n">
-        <v>0.1926739970504745</v>
+        <v>0.2243069037468104</v>
       </c>
       <c r="I318" t="n">
         <v>0.18916028838395416</v>
       </c>
       <c r="J318" t="n">
-        <v>0.848097983405701</v>
+        <v>0.8482206629860076</v>
       </c>
       <c r="K318" t="n">
         <v>0.7901234567901234</v>
@@ -10650,13 +10650,13 @@
         <v>0.0</v>
       </c>
       <c r="H319" t="n">
-        <v>0.22628185685573798</v>
+        <v>0.26644005471854654</v>
       </c>
       <c r="I319" t="n">
-        <v>0.222338253527637</v>
+        <v>0.22233934251614818</v>
       </c>
       <c r="J319" t="n">
-        <v>0.8598833100266072</v>
+        <v>0.8599993790530879</v>
       </c>
       <c r="K319" t="n">
         <v>0.6722408026755853</v>
@@ -10716,19 +10716,19 @@
         <v>0.0</v>
       </c>
       <c r="H321" t="n">
-        <v>0.4444426918901064</v>
+        <v>0.5348811857618035</v>
       </c>
       <c r="I321" t="n">
         <v>0.4364021458719731</v>
       </c>
       <c r="J321" t="n">
-        <v>0.8314657685898389</v>
+        <v>0.8315573004039606</v>
       </c>
       <c r="K321" t="n">
-        <v>0.643979057591623</v>
+        <v>0.6412903225806451</v>
       </c>
       <c r="L321" t="n">
-        <v>0.7227086433288955</v>
+        <v>0.7228950900667993</v>
       </c>
     </row>
     <row r="322">
@@ -10754,19 +10754,19 @@
         <v>0.0</v>
       </c>
       <c r="H322" t="n">
-        <v>0.4586653352770189</v>
+        <v>0.5566509772918241</v>
       </c>
       <c r="I322" t="n">
-        <v>0.4499516750308478</v>
+        <v>0.45008815380511186</v>
       </c>
       <c r="J322" t="n">
-        <v>0.8156668924241701</v>
+        <v>0.8161609374899391</v>
       </c>
       <c r="K322" t="n">
-        <v>0.6657681940700808</v>
+        <v>0.6558441558441559</v>
       </c>
       <c r="L322" t="n">
-        <v>0.7226575755835505</v>
+        <v>0.7230477444433995</v>
       </c>
     </row>
     <row r="323">
@@ -10858,19 +10858,19 @@
         <v>0.0</v>
       </c>
       <c r="H325" t="n">
-        <v>0.176232948768882</v>
+        <v>0.20745493193390885</v>
       </c>
       <c r="I325" t="n">
-        <v>0.17320071115991925</v>
+        <v>0.17320180419546113</v>
       </c>
       <c r="J325" t="n">
-        <v>0.8509856918067366</v>
+        <v>0.8511098581186425</v>
       </c>
       <c r="K325" t="n">
-        <v>0.7817460317460317</v>
+        <v>0.6357827476038339</v>
       </c>
       <c r="L325" t="n">
-        <v>0.7353737908573711</v>
+        <v>0.7353578508967403</v>
       </c>
     </row>
     <row r="326">
@@ -10924,13 +10924,13 @@
         <v>0.0</v>
       </c>
       <c r="H327" t="n">
-        <v>0.1936120624354038</v>
+        <v>0.2256595195535554</v>
       </c>
       <c r="I327" t="n">
         <v>0.19006853617504646</v>
       </c>
       <c r="J327" t="n">
-        <v>0.848097983405701</v>
+        <v>0.8482206629860076</v>
       </c>
       <c r="K327" t="n">
         <v>0.7901234567901234</v>
@@ -10962,19 +10962,19 @@
         <v>0.0</v>
       </c>
       <c r="H328" t="n">
-        <v>0.2273896645266459</v>
+        <v>0.26808800878741035</v>
       </c>
       <c r="I328" t="n">
-        <v>0.22341289643235795</v>
+        <v>0.22341398946789984</v>
       </c>
       <c r="J328" t="n">
-        <v>0.8598833100266072</v>
+        <v>0.8599993790530879</v>
       </c>
       <c r="K328" t="n">
-        <v>0.7509433962264151</v>
+        <v>0.6357827476038339</v>
       </c>
       <c r="L328" t="n">
-        <v>0.7354229085042636</v>
+        <v>0.7353578508967403</v>
       </c>
     </row>
     <row r="329">
@@ -11028,19 +11028,19 @@
         <v>0.0</v>
       </c>
       <c r="H330" t="n">
-        <v>0.4465959426417516</v>
+        <v>0.5382513130336584</v>
       </c>
       <c r="I330" t="n">
         <v>0.4384888379904051</v>
       </c>
       <c r="J330" t="n">
-        <v>0.8314657685898389</v>
+        <v>0.8315573004039606</v>
       </c>
       <c r="K330" t="n">
-        <v>0.6330749354005168</v>
+        <v>0.6310432569974554</v>
       </c>
       <c r="L330" t="n">
-        <v>0.7479365377687982</v>
+        <v>0.7481681107646668</v>
       </c>
     </row>
     <row r="331">
@@ -11066,19 +11066,19 @@
         <v>0.0</v>
       </c>
       <c r="H331" t="n">
-        <v>0.4608996004610442</v>
+        <v>0.5602476306599841</v>
       </c>
       <c r="I331" t="n">
-        <v>0.4521074222122258</v>
+        <v>0.4522451530848198</v>
       </c>
       <c r="J331" t="n">
-        <v>0.8156668924241701</v>
+        <v>0.8161609374899391</v>
       </c>
       <c r="K331" t="n">
-        <v>0.6820083682008368</v>
+        <v>0.6305170239596469</v>
       </c>
       <c r="L331" t="n">
-        <v>0.7479373561628824</v>
+        <v>0.7482839321722232</v>
       </c>
     </row>
     <row r="332">
@@ -11170,7 +11170,7 @@
         <v>0.0</v>
       </c>
       <c r="H334" t="n">
-        <v>0.17301709854544547</v>
+        <v>0.2051633756982633</v>
       </c>
       <c r="I334" t="n">
         <v>0.1698812655516116</v>
@@ -11179,10 +11179,10 @@
         <v>0.8093324259523978</v>
       </c>
       <c r="K334" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.6533333333333333</v>
       </c>
       <c r="L334" t="n">
-        <v>0.781683001013856</v>
+        <v>0.7816293291539903</v>
       </c>
     </row>
     <row r="335">
@@ -11274,7 +11274,7 @@
         <v>0.0</v>
       </c>
       <c r="H337" t="n">
-        <v>0.2237250787658878</v>
+        <v>0.2656802795871345</v>
       </c>
       <c r="I337" t="n">
         <v>0.2198046923111069</v>
@@ -11283,10 +11283,10 @@
         <v>0.8415706424585702</v>
       </c>
       <c r="K337" t="n">
-        <v>0.7471698113207547</v>
+        <v>0.6325878594249201</v>
       </c>
       <c r="L337" t="n">
-        <v>0.781738756363115</v>
+        <v>0.7816850905141944</v>
       </c>
     </row>
     <row r="338">
@@ -11378,7 +11378,7 @@
         <v>0.0</v>
       </c>
       <c r="H340" t="n">
-        <v>0.45927021890445907</v>
+        <v>0.5649437283787105</v>
       </c>
       <c r="I340" t="n">
         <v>0.4503846334763228</v>
@@ -11387,10 +11387,10 @@
         <v>0.819940091965041</v>
       </c>
       <c r="K340" t="n">
-        <v>0.6689560439560439</v>
+        <v>0.6275773195876289</v>
       </c>
       <c r="L340" t="n">
-        <v>0.795067681100431</v>
+        <v>0.7950163373106595</v>
       </c>
     </row>
     <row r="341">
@@ -11444,7 +11444,7 @@
         <v>0.0</v>
       </c>
       <c r="H342" t="n">
-        <v>0.05199411553063696</v>
+        <v>0.06781412064203521</v>
       </c>
       <c r="I342" t="n">
         <v>0.05042956476838498</v>
@@ -11482,7 +11482,7 @@
         <v>0.0</v>
       </c>
       <c r="H343" t="n">
-        <v>0.07261064239532782</v>
+        <v>0.0956309329141207</v>
       </c>
       <c r="I343" t="n">
         <v>0.0705295620618563</v>
@@ -11548,7 +11548,7 @@
         <v>0.0</v>
       </c>
       <c r="H345" t="n">
-        <v>0.07909204862841146</v>
+        <v>0.09979168046130998</v>
       </c>
       <c r="I345" t="n">
         <v>0.07690897522619757</v>
@@ -11586,7 +11586,7 @@
         <v>0.0</v>
       </c>
       <c r="H346" t="n">
-        <v>0.09875978823904885</v>
+        <v>0.12775847661695391</v>
       </c>
       <c r="I346" t="n">
         <v>0.09610847128647713</v>
@@ -11652,7 +11652,7 @@
         <v>0.0</v>
       </c>
       <c r="H348" t="n">
-        <v>0.2915502313828522</v>
+        <v>0.39989035287241753</v>
       </c>
       <c r="I348" t="n">
         <v>0.2834349216818492</v>
@@ -11690,13 +11690,13 @@
         <v>0.0</v>
       </c>
       <c r="H349" t="n">
-        <v>0.29876097342033564</v>
+        <v>0.41347452026479925</v>
       </c>
       <c r="I349" t="n">
-        <v>0.29063840575002264</v>
+        <v>0.29059719592670197</v>
       </c>
       <c r="J349" t="n">
-        <v>0.7064554733411735</v>
+        <v>0.7057495612712048</v>
       </c>
       <c r="K349" t="n">
         <v>0.22926829268292684</v>
@@ -11756,7 +11756,7 @@
         <v>0.0</v>
       </c>
       <c r="H351" t="n">
-        <v>0.05225809676434694</v>
+        <v>0.06834469674947795</v>
       </c>
       <c r="I351" t="n">
         <v>0.050681468552386526</v>
@@ -11794,7 +11794,7 @@
         <v>0.0</v>
       </c>
       <c r="H352" t="n">
-        <v>0.07296987582769035</v>
+        <v>0.096391435573039</v>
       </c>
       <c r="I352" t="n">
         <v>0.07087267402870724</v>
@@ -11803,10 +11803,10 @@
         <v>0.6859130955959826</v>
       </c>
       <c r="K352" t="n">
-        <v>0.375</v>
+        <v>0.23353293413173654</v>
       </c>
       <c r="L352" t="n">
-        <v>0.8785064769069444</v>
+        <v>0.879208727819926</v>
       </c>
     </row>
     <row r="353">
@@ -11860,7 +11860,7 @@
         <v>0.0</v>
       </c>
       <c r="H354" t="n">
-        <v>0.07947922309790952</v>
+        <v>0.10050522279561047</v>
       </c>
       <c r="I354" t="n">
         <v>0.07728072907836685</v>
@@ -11898,7 +11898,7 @@
         <v>0.0</v>
       </c>
       <c r="H355" t="n">
-        <v>0.09923941423476235</v>
+        <v>0.12873933852700076</v>
       </c>
       <c r="I355" t="n">
         <v>0.09656945434645618</v>
@@ -11907,10 +11907,10 @@
         <v>0.7047454715596083</v>
       </c>
       <c r="K355" t="n">
-        <v>0.375</v>
+        <v>0.23353293413173654</v>
       </c>
       <c r="L355" t="n">
-        <v>0.8785064769069444</v>
+        <v>0.879208727819926</v>
       </c>
     </row>
     <row r="356">
@@ -11964,7 +11964,7 @@
         <v>0.0</v>
       </c>
       <c r="H357" t="n">
-        <v>0.29298216276702393</v>
+        <v>0.40298962406423505</v>
       </c>
       <c r="I357" t="n">
         <v>0.2848117449776265</v>
@@ -12002,19 +12002,19 @@
         <v>0.0</v>
       </c>
       <c r="H358" t="n">
-        <v>0.3001826856290282</v>
+        <v>0.4167381575061408</v>
       </c>
       <c r="I358" t="n">
-        <v>0.2920073520969115</v>
+        <v>0.29196593318541303</v>
       </c>
       <c r="J358" t="n">
-        <v>0.7064554733411735</v>
+        <v>0.7057495612712048</v>
       </c>
       <c r="K358" t="n">
-        <v>0.2713864306784661</v>
+        <v>0.22926829268292684</v>
       </c>
       <c r="L358" t="n">
-        <v>0.8873085512457037</v>
+        <v>0.8873408358429756</v>
       </c>
     </row>
     <row r="359">
@@ -12068,7 +12068,7 @@
         <v>0.0</v>
       </c>
       <c r="H360" t="n">
-        <v>0.052516976950749056</v>
+        <v>0.07101424110987864</v>
       </c>
       <c r="I360" t="n">
         <v>0.050926119951165756</v>
@@ -12106,7 +12106,7 @@
         <v>0.0</v>
       </c>
       <c r="H361" t="n">
-        <v>0.07331902431617288</v>
+        <v>0.10016962030636709</v>
       </c>
       <c r="I361" t="n">
         <v>0.07120701151667837</v>
@@ -12115,10 +12115,10 @@
         <v>0.6859130955959826</v>
       </c>
       <c r="K361" t="n">
-        <v>0.375</v>
+        <v>0.23353293413173654</v>
       </c>
       <c r="L361" t="n">
-        <v>0.8833217689807544</v>
+        <v>0.884031391727799</v>
       </c>
     </row>
     <row r="362">
@@ -12172,7 +12172,7 @@
         <v>0.0</v>
       </c>
       <c r="H363" t="n">
-        <v>0.07985507817864552</v>
+        <v>0.10434572600697256</v>
       </c>
       <c r="I363" t="n">
         <v>0.07763928925725423</v>
@@ -12210,7 +12210,7 @@
         <v>0.0</v>
       </c>
       <c r="H364" t="n">
-        <v>0.09970570359211323</v>
+        <v>0.13372943511485721</v>
       </c>
       <c r="I364" t="n">
         <v>0.09701702022479815</v>
@@ -12219,10 +12219,10 @@
         <v>0.7047454715596083</v>
       </c>
       <c r="K364" t="n">
-        <v>0.375</v>
+        <v>0.23353293413173654</v>
       </c>
       <c r="L364" t="n">
-        <v>0.8833217689807544</v>
+        <v>0.884031391727799</v>
       </c>
     </row>
     <row r="365">
@@ -12276,7 +12276,7 @@
         <v>0.0</v>
       </c>
       <c r="H366" t="n">
-        <v>0.2943963462131244</v>
+        <v>0.41857321346345816</v>
       </c>
       <c r="I366" t="n">
         <v>0.2861704407071733</v>
@@ -12314,19 +12314,19 @@
         <v>0.0</v>
       </c>
       <c r="H367" t="n">
-        <v>0.30160180620089827</v>
+        <v>0.4329782998138295</v>
       </c>
       <c r="I367" t="n">
-        <v>0.293373426815759</v>
+        <v>0.29333179519254626</v>
       </c>
       <c r="J367" t="n">
-        <v>0.7064554733411735</v>
+        <v>0.7057495612712048</v>
       </c>
       <c r="K367" t="n">
-        <v>0.2847682119205298</v>
+        <v>0.23821989528795812</v>
       </c>
       <c r="L367" t="n">
-        <v>0.8916808167311769</v>
+        <v>0.8918729109352146</v>
       </c>
     </row>
     <row r="368">
@@ -12380,7 +12380,7 @@
         <v>0.0</v>
       </c>
       <c r="H369" t="n">
-        <v>0.05305599269063974</v>
+        <v>0.07209506124813791</v>
       </c>
       <c r="I369" t="n">
         <v>0.05144415366669064</v>
@@ -12418,7 +12418,7 @@
         <v>0.0</v>
       </c>
       <c r="H370" t="n">
-        <v>0.0696952264226512</v>
+        <v>0.09347817793276557</v>
       </c>
       <c r="I370" t="n">
         <v>0.06761498057013633</v>
@@ -12484,7 +12484,7 @@
         <v>0.0</v>
       </c>
       <c r="H372" t="n">
-        <v>0.08064998664325394</v>
+        <v>0.10579754702675996</v>
       </c>
       <c r="I372" t="n">
         <v>0.07840497705770334</v>
@@ -12522,7 +12522,7 @@
         <v>0.0</v>
       </c>
       <c r="H373" t="n">
-        <v>0.09519283355328775</v>
+        <v>0.12467091193334508</v>
       </c>
       <c r="I373" t="n">
         <v>0.09255477306678758</v>
@@ -12588,7 +12588,7 @@
         <v>0.0</v>
       </c>
       <c r="H375" t="n">
-        <v>0.29723245860388103</v>
+        <v>0.42486434273954643</v>
       </c>
       <c r="I375" t="n">
         <v>0.2888836726990277</v>
@@ -12597,10 +12597,10 @@
         <v>0.7168049317303017</v>
       </c>
       <c r="K375" t="n">
-        <v>0.3299319727891156</v>
+        <v>0.3356164383561644</v>
       </c>
       <c r="L375" t="n">
-        <v>0.9064740599060567</v>
+        <v>0.9066110024837499</v>
       </c>
     </row>
     <row r="376">
@@ -12626,7 +12626,7 @@
         <v>0.0</v>
       </c>
       <c r="H376" t="n">
-        <v>0.29849768525056053</v>
+        <v>0.42694162315929296</v>
       </c>
       <c r="I376" t="n">
         <v>0.2901463292373488</v>
@@ -12635,10 +12635,10 @@
         <v>0.7080323763941035</v>
       </c>
       <c r="K376" t="n">
-        <v>0.2847682119205298</v>
+        <v>0.2861736334405145</v>
       </c>
       <c r="L376" t="n">
-        <v>0.9049906662307392</v>
+        <v>0.9051551287463064</v>
       </c>
     </row>
     <row r="377">
@@ -18980,7 +18980,7 @@
         <v>0.0</v>
       </c>
       <c r="H594" t="n">
-        <v>0.3375533228131174</v>
+        <v>0.3951679717153262</v>
       </c>
       <c r="I594" t="n">
         <v>0.3306209318731886</v>
@@ -19018,7 +19018,7 @@
         <v>0.0</v>
       </c>
       <c r="H595" t="n">
-        <v>0.3407586402704822</v>
+        <v>0.4000562195693184</v>
       </c>
       <c r="I595" t="n">
         <v>0.33397290940504104</v>
@@ -19084,7 +19084,7 @@
         <v>0.0</v>
       </c>
       <c r="H597" t="n">
-        <v>0.4343968707378643</v>
+        <v>0.5195576945404589</v>
       </c>
       <c r="I597" t="n">
         <v>0.4253569130514353</v>
@@ -19122,7 +19122,7 @@
         <v>0.0</v>
       </c>
       <c r="H598" t="n">
-        <v>0.4438124838770071</v>
+        <v>0.531414080112901</v>
       </c>
       <c r="I598" t="n">
         <v>0.4347535988709464</v>
@@ -19188,19 +19188,19 @@
         <v>0.0</v>
       </c>
       <c r="H600" t="n">
-        <v>0.538237872499909</v>
+        <v>0.664871118471533</v>
       </c>
       <c r="I600" t="n">
-        <v>0.5275032971529136</v>
+        <v>0.5274672877142129</v>
       </c>
       <c r="J600" t="n">
-        <v>0.5499960110304737</v>
+        <v>0.5537242804397607</v>
       </c>
       <c r="K600" t="n">
-        <v>0.25368</v>
+        <v>0.26042525135981537</v>
       </c>
       <c r="L600" t="n">
-        <v>0.7798319997873415</v>
+        <v>0.7800520657379623</v>
       </c>
     </row>
     <row r="601">
@@ -19226,19 +19226,19 @@
         <v>0.0</v>
       </c>
       <c r="H601" t="n">
-        <v>0.5168130874320285</v>
+        <v>0.6413955958642091</v>
       </c>
       <c r="I601" t="n">
-        <v>0.5064587308445959</v>
+        <v>0.5064388281811437</v>
       </c>
       <c r="J601" t="n">
-        <v>0.5116087648913892</v>
+        <v>0.5144861271943356</v>
       </c>
       <c r="K601" t="n">
-        <v>0.2234705846039879</v>
+        <v>0.22768532526475038</v>
       </c>
       <c r="L601" t="n">
-        <v>0.7890365565622025</v>
+        <v>0.789298317142094</v>
       </c>
     </row>
     <row r="602">
@@ -19292,7 +19292,7 @@
         <v>0.0</v>
       </c>
       <c r="H603" t="n">
-        <v>0.33918973598991303</v>
+        <v>0.39764631936400624</v>
       </c>
       <c r="I603" t="n">
         <v>0.33219488340821934</v>
@@ -19330,7 +19330,7 @@
         <v>0.0</v>
       </c>
       <c r="H604" t="n">
-        <v>0.34241204966579775</v>
+        <v>0.40253840653811085</v>
       </c>
       <c r="I604" t="n">
         <v>0.3355636660807387</v>
@@ -19339,10 +19339,10 @@
         <v>0.911746247809462</v>
       </c>
       <c r="K604" t="n">
-        <v>0.7790849673202614</v>
+        <v>0.7909199522102748</v>
       </c>
       <c r="L604" t="n">
-        <v>0.7277568856488582</v>
+        <v>0.7306252043754813</v>
       </c>
     </row>
     <row r="605">
@@ -19396,7 +19396,7 @@
         <v>0.0</v>
       </c>
       <c r="H606" t="n">
-        <v>0.4365343651234629</v>
+        <v>0.523225376822824</v>
       </c>
       <c r="I606" t="n">
         <v>0.42740786264984065</v>
@@ -19434,7 +19434,7 @@
         <v>0.0</v>
       </c>
       <c r="H607" t="n">
-        <v>0.445995657518186</v>
+        <v>0.5350577381045327</v>
       </c>
       <c r="I607" t="n">
         <v>0.436850168346216</v>
@@ -19443,10 +19443,10 @@
         <v>0.871251222979297</v>
       </c>
       <c r="K607" t="n">
-        <v>0.6688851913477537</v>
+        <v>0.6642216788916055</v>
       </c>
       <c r="L607" t="n">
-        <v>0.7362439458442783</v>
+        <v>0.7366304956408137</v>
       </c>
     </row>
     <row r="608">
@@ -19500,19 +19500,19 @@
         <v>0.0</v>
       </c>
       <c r="H609" t="n">
-        <v>0.5409190916479347</v>
+        <v>0.6696877745349735</v>
       </c>
       <c r="I609" t="n">
-        <v>0.5300850125175817</v>
+        <v>0.5300487466305224</v>
       </c>
       <c r="J609" t="n">
-        <v>0.5499960110304737</v>
+        <v>0.5537242804397607</v>
       </c>
       <c r="K609" t="n">
-        <v>0.2657881398884947</v>
+        <v>0.27101184172523346</v>
       </c>
       <c r="L609" t="n">
-        <v>0.8015422613548521</v>
+        <v>0.8097955271565496</v>
       </c>
     </row>
     <row r="610">
@@ -19538,19 +19538,19 @@
         <v>0.0</v>
       </c>
       <c r="H610" t="n">
-        <v>0.5193940843390622</v>
+        <v>0.6463248005906922</v>
       </c>
       <c r="I610" t="n">
-        <v>0.5089434459758551</v>
+        <v>0.5089233998963205</v>
       </c>
       <c r="J610" t="n">
-        <v>0.5116087648913892</v>
+        <v>0.5144861271943356</v>
       </c>
       <c r="K610" t="n">
-        <v>0.2650918635170604</v>
+        <v>0.2515977127480659</v>
       </c>
       <c r="L610" t="n">
-        <v>0.8048034324739455</v>
+        <v>0.8149195998614804</v>
       </c>
     </row>
     <row r="611">
@@ -19604,7 +19604,7 @@
         <v>0.0</v>
       </c>
       <c r="H612" t="n">
-        <v>0.34082706940816093</v>
+        <v>0.4001657929527603</v>
       </c>
       <c r="I612" t="n">
         <v>0.33377470454557234</v>
@@ -19616,7 +19616,7 @@
         <v>0.7982565379825654</v>
       </c>
       <c r="L612" t="n">
-        <v>0.7552629499907829</v>
+        <v>0.7552734837911147</v>
       </c>
     </row>
     <row r="613">
@@ -19642,7 +19642,7 @@
         <v>0.0</v>
       </c>
       <c r="H613" t="n">
-        <v>0.3440671707237327</v>
+        <v>0.4050261428558667</v>
       </c>
       <c r="I613" t="n">
         <v>0.3371616381151479</v>
@@ -19651,10 +19651,10 @@
         <v>0.911746247809462</v>
       </c>
       <c r="K613" t="n">
-        <v>0.7833553500660502</v>
+        <v>0.7954271961492179</v>
       </c>
       <c r="L613" t="n">
-        <v>0.7531467099355692</v>
+        <v>0.756168949314151</v>
       </c>
     </row>
     <row r="614">
@@ -19708,7 +19708,7 @@
         <v>0.0</v>
       </c>
       <c r="H615" t="n">
-        <v>0.43867320286933564</v>
+        <v>0.5270624346875532</v>
       </c>
       <c r="I615" t="n">
         <v>0.4294664103854775</v>
@@ -19717,10 +19717,10 @@
         <v>0.8747484274576497</v>
       </c>
       <c r="K615" t="n">
-        <v>0.7432692307692308</v>
+        <v>0.7339015151515151</v>
       </c>
       <c r="L615" t="n">
-        <v>0.7609599013741724</v>
+        <v>0.7609435125539469</v>
       </c>
     </row>
     <row r="616">
@@ -19746,7 +19746,7 @@
         <v>0.0</v>
       </c>
       <c r="H616" t="n">
-        <v>0.44818364239752856</v>
+        <v>0.5388055900904656</v>
       </c>
       <c r="I616" t="n">
         <v>0.4389548068563916</v>
@@ -19755,10 +19755,10 @@
         <v>0.871251222979297</v>
       </c>
       <c r="K616" t="n">
-        <v>0.7344632768361582</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L616" t="n">
-        <v>0.7612279946192824</v>
+        <v>0.7615831297470207</v>
       </c>
     </row>
     <row r="617">
@@ -19812,19 +19812,19 @@
         <v>0.0</v>
       </c>
       <c r="H618" t="n">
-        <v>0.5435979380109566</v>
+        <v>0.674554146398359</v>
       </c>
       <c r="I618" t="n">
-        <v>0.5326751497036394</v>
+        <v>0.5326386483026707</v>
       </c>
       <c r="J618" t="n">
-        <v>0.5499960110304737</v>
+        <v>0.5537242804397607</v>
       </c>
       <c r="K618" t="n">
-        <v>0.3034754098360656</v>
+        <v>0.30727951469902004</v>
       </c>
       <c r="L618" t="n">
-        <v>0.8212074491332007</v>
+        <v>0.8348096764937057</v>
       </c>
     </row>
     <row r="619">
@@ -19850,19 +19850,19 @@
         <v>0.0</v>
       </c>
       <c r="H619" t="n">
-        <v>0.5219726747437483</v>
+        <v>0.6514365794406165</v>
       </c>
       <c r="I619" t="n">
-        <v>0.5114353284758641</v>
+        <v>0.5114151500503523</v>
       </c>
       <c r="J619" t="n">
-        <v>0.5116087648913892</v>
+        <v>0.5144861271943356</v>
       </c>
       <c r="K619" t="n">
-        <v>0.34375</v>
+        <v>0.2879700810305423</v>
       </c>
       <c r="L619" t="n">
-        <v>0.826822107712361</v>
+        <v>0.840244714235902</v>
       </c>
     </row>
     <row r="620">
@@ -19916,7 +19916,7 @@
         <v>0.0</v>
       </c>
       <c r="H621" t="n">
-        <v>0.34404252369979155</v>
+        <v>0.40912879222290593</v>
       </c>
       <c r="I621" t="n">
         <v>0.33685229220313245</v>
@@ -19925,10 +19925,10 @@
         <v>0.9161248347373276</v>
       </c>
       <c r="K621" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.768361581920904</v>
       </c>
       <c r="L621" t="n">
-        <v>0.7921721300838329</v>
+        <v>0.7983101334408259</v>
       </c>
     </row>
     <row r="622">
@@ -19954,7 +19954,7 @@
         <v>0.0</v>
       </c>
       <c r="H622" t="n">
-        <v>0.3412335445210119</v>
+        <v>0.4056333678668823</v>
       </c>
       <c r="I622" t="n">
         <v>0.3341799274594127</v>
@@ -19963,10 +19963,10 @@
         <v>0.9163138304939337</v>
       </c>
       <c r="K622" t="n">
-        <v>0.8035190615835777</v>
+        <v>0.7675324675324675</v>
       </c>
       <c r="L622" t="n">
-        <v>0.7985047668410058</v>
+        <v>0.800505130063115</v>
       </c>
     </row>
     <row r="623">
@@ -20020,7 +20020,7 @@
         <v>0.0</v>
       </c>
       <c r="H624" t="n">
-        <v>0.44289540161365276</v>
+        <v>0.5395289007610402</v>
       </c>
       <c r="I624" t="n">
         <v>0.4335072769331195</v>
@@ -20029,10 +20029,10 @@
         <v>0.8747484274576497</v>
       </c>
       <c r="K624" t="n">
-        <v>0.7356919875130072</v>
+        <v>0.7229601518026565</v>
       </c>
       <c r="L624" t="n">
-        <v>0.8060122446171838</v>
+        <v>0.8084021563056005</v>
       </c>
     </row>
     <row r="625">
@@ -20058,7 +20058,7 @@
         <v>0.0</v>
       </c>
       <c r="H625" t="n">
-        <v>0.4453227627932564</v>
+        <v>0.5409048584947117</v>
       </c>
       <c r="I625" t="n">
         <v>0.4359472952407806</v>
@@ -20067,10 +20067,10 @@
         <v>0.8721191613430743</v>
       </c>
       <c r="K625" t="n">
-        <v>0.7235849056603774</v>
+        <v>0.6952636282394995</v>
       </c>
       <c r="L625" t="n">
-        <v>0.808677264419603</v>
+        <v>0.8091297781370318</v>
       </c>
     </row>
     <row r="626">
@@ -20124,19 +20124,19 @@
         <v>0.0</v>
       </c>
       <c r="H627" t="n">
-        <v>0.5489575906393885</v>
+        <v>0.691130956950682</v>
       </c>
       <c r="I627" t="n">
-        <v>0.5378204204939963</v>
+        <v>0.537783424219706</v>
       </c>
       <c r="J627" t="n">
-        <v>0.5499960110304737</v>
+        <v>0.5537242804397607</v>
       </c>
       <c r="K627" t="n">
-        <v>0.39713774597495527</v>
+        <v>0.3371252882398155</v>
       </c>
       <c r="L627" t="n">
-        <v>0.8423437950876717</v>
+        <v>0.8697464916793282</v>
       </c>
     </row>
     <row r="628">
@@ -20162,7 +20162,7 @@
         <v>0.0</v>
       </c>
       <c r="H628" t="n">
-        <v>0.5499833959092495</v>
+        <v>0.6923193806042632</v>
       </c>
       <c r="I628" t="n">
         <v>0.5388107720540392</v>
@@ -20171,10 +20171,10 @@
         <v>0.5551745944113333</v>
       </c>
       <c r="K628" t="n">
-        <v>0.3371771217712177</v>
+        <v>0.2896559821533404</v>
       </c>
       <c r="L628" t="n">
-        <v>0.8697472708239868</v>
+        <v>0.8814838566460301</v>
       </c>
     </row>
     <row r="629">
@@ -20228,7 +20228,7 @@
         <v>0.0</v>
       </c>
       <c r="H630" t="n">
-        <v>0.3351095978364085</v>
+        <v>0.4669870262909724</v>
       </c>
       <c r="I630" t="n">
         <v>0.3228304363397133</v>
@@ -20266,7 +20266,7 @@
         <v>0.0</v>
       </c>
       <c r="H631" t="n">
-        <v>0.33848908381295695</v>
+        <v>0.47595793100010847</v>
       </c>
       <c r="I631" t="n">
         <v>0.32739715494529936</v>
@@ -20332,19 +20332,19 @@
         <v>0.0</v>
       </c>
       <c r="H633" t="n">
-        <v>0.4044325115424483</v>
+        <v>0.5799642044545645</v>
       </c>
       <c r="I633" t="n">
-        <v>0.39027906872182283</v>
+        <v>0.39035048849537646</v>
       </c>
       <c r="J633" t="n">
-        <v>0.7207155277530498</v>
+        <v>0.7218824665087411</v>
       </c>
       <c r="K633" t="n">
-        <v>0.21285475792988315</v>
+        <v>0.21232306411323898</v>
       </c>
       <c r="L633" t="n">
-        <v>0.8992259503427465</v>
+        <v>0.8992242976860128</v>
       </c>
     </row>
     <row r="634">
@@ -20370,19 +20370,19 @@
         <v>0.0</v>
       </c>
       <c r="H634" t="n">
-        <v>0.4071433444928324</v>
+        <v>0.5882385638110339</v>
       </c>
       <c r="I634" t="n">
-        <v>0.3939074326261894</v>
+        <v>0.3936384884057515</v>
       </c>
       <c r="J634" t="n">
-        <v>0.7144270900313212</v>
+        <v>0.7012659628967686</v>
       </c>
       <c r="K634" t="n">
-        <v>0.22136752136752136</v>
+        <v>0.216597510373444</v>
       </c>
       <c r="L634" t="n">
-        <v>0.8997123073388976</v>
+        <v>0.8997148783170706</v>
       </c>
     </row>
     <row r="635">
@@ -20436,19 +20436,19 @@
         <v>0.0</v>
       </c>
       <c r="H636" t="n">
-        <v>0.3983511963962164</v>
+        <v>0.5850207761993582</v>
       </c>
       <c r="I636" t="n">
-        <v>0.3860810935063369</v>
+        <v>0.38600517706769805</v>
       </c>
       <c r="J636" t="n">
-        <v>0.4774245070971332</v>
+        <v>0.49230598166244816</v>
       </c>
       <c r="K636" t="n">
-        <v>0.060510859172244226</v>
+        <v>0.06917151391290678</v>
       </c>
       <c r="L636" t="n">
-        <v>0.9188094874834227</v>
+        <v>0.9188297109267024</v>
       </c>
     </row>
     <row r="637">
@@ -20474,19 +20474,19 @@
         <v>0.0</v>
       </c>
       <c r="H637" t="n">
-        <v>0.3877195401761981</v>
+        <v>0.5719285315366549</v>
       </c>
       <c r="I637" t="n">
-        <v>0.3758287270266302</v>
+        <v>0.37579073453495226</v>
       </c>
       <c r="J637" t="n">
-        <v>0.44478406853461583</v>
+        <v>0.45324480544798407</v>
       </c>
       <c r="K637" t="n">
-        <v>0.0547269524368761</v>
+        <v>0.06013768021821016</v>
       </c>
       <c r="L637" t="n">
-        <v>0.9212085941304322</v>
+        <v>0.9211469745740188</v>
       </c>
     </row>
     <row r="638">
@@ -20540,7 +20540,7 @@
         <v>0.0</v>
       </c>
       <c r="H639" t="n">
-        <v>0.3367565878931905</v>
+        <v>0.4708274267516429</v>
       </c>
       <c r="I639" t="n">
         <v>0.32438153467956965</v>
@@ -20578,7 +20578,7 @@
         <v>0.0</v>
       </c>
       <c r="H640" t="n">
-        <v>0.34015047780819424</v>
+        <v>0.4799764034088884</v>
       </c>
       <c r="I640" t="n">
         <v>0.3289743740137328</v>
@@ -20587,10 +20587,10 @@
         <v>0.82393122034468</v>
       </c>
       <c r="K640" t="n">
-        <v>0.3029801324503311</v>
+        <v>0.28402366863905326</v>
       </c>
       <c r="L640" t="n">
-        <v>0.9017933482106848</v>
+        <v>0.9032913384129584</v>
       </c>
     </row>
     <row r="641">
@@ -20644,19 +20644,19 @@
         <v>0.0</v>
       </c>
       <c r="H642" t="n">
-        <v>0.40643637876219035</v>
+        <v>0.5851954570486164</v>
       </c>
       <c r="I642" t="n">
-        <v>0.39217136221993043</v>
+        <v>0.3922434742788872</v>
       </c>
       <c r="J642" t="n">
-        <v>0.7207155277530498</v>
+        <v>0.7218824665087411</v>
       </c>
       <c r="K642" t="n">
-        <v>0.21271186440677967</v>
+        <v>0.21070234113712374</v>
       </c>
       <c r="L642" t="n">
-        <v>0.9115892628887942</v>
+        <v>0.9117513673593164</v>
       </c>
     </row>
     <row r="643">
@@ -20682,19 +20682,19 @@
         <v>0.0</v>
       </c>
       <c r="H643" t="n">
-        <v>0.4091580462347885</v>
+        <v>0.5936649176467061</v>
       </c>
       <c r="I643" t="n">
-        <v>0.3958208610806974</v>
+        <v>0.39555092941048764</v>
       </c>
       <c r="J643" t="n">
-        <v>0.7144270900313212</v>
+        <v>0.7012659628967686</v>
       </c>
       <c r="K643" t="n">
-        <v>0.23518344308560676</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="L643" t="n">
-        <v>0.9115544154568278</v>
+        <v>0.9116959958080433</v>
       </c>
     </row>
     <row r="644">
@@ -20748,19 +20748,19 @@
         <v>0.0</v>
       </c>
       <c r="H645" t="n">
-        <v>0.40031033697773766</v>
+        <v>0.590598258104122</v>
       </c>
       <c r="I645" t="n">
-        <v>0.3879532588575688</v>
+        <v>0.387876823683643</v>
       </c>
       <c r="J645" t="n">
-        <v>0.4774245070971332</v>
+        <v>0.49230598166244816</v>
       </c>
       <c r="K645" t="n">
-        <v>0.06893039049235994</v>
+        <v>0.07950835413865949</v>
       </c>
       <c r="L645" t="n">
-        <v>0.9291023871269573</v>
+        <v>0.9297568283969114</v>
       </c>
     </row>
     <row r="646">
@@ -20786,19 +20786,19 @@
         <v>0.0</v>
       </c>
       <c r="H646" t="n">
-        <v>0.389632896449236</v>
+        <v>0.5774728326394031</v>
       </c>
       <c r="I646" t="n">
-        <v>0.3776525125354826</v>
+        <v>0.37761426050598046</v>
       </c>
       <c r="J646" t="n">
-        <v>0.44478406853461583</v>
+        <v>0.45324480544798407</v>
       </c>
       <c r="K646" t="n">
-        <v>0.07590315142198309</v>
+        <v>0.0741507156406277</v>
       </c>
       <c r="L646" t="n">
-        <v>0.9262064450926798</v>
+        <v>0.9309812747987098</v>
       </c>
     </row>
     <row r="647">
@@ -20852,7 +20852,7 @@
         <v>0.0</v>
       </c>
       <c r="H648" t="n">
-        <v>0.33839818421908974</v>
+        <v>0.4893729529827135</v>
       </c>
       <c r="I648" t="n">
         <v>0.3259315349564</v>
@@ -20890,7 +20890,7 @@
         <v>0.0</v>
       </c>
       <c r="H649" t="n">
-        <v>0.3418112256744365</v>
+        <v>0.4989913093880283</v>
       </c>
       <c r="I649" t="n">
         <v>0.33055072613443054</v>
@@ -20899,10 +20899,10 @@
         <v>0.82393122034468</v>
       </c>
       <c r="K649" t="n">
-        <v>0.2996575342465753</v>
+        <v>0.2795216741405082</v>
       </c>
       <c r="L649" t="n">
-        <v>0.9053928542667704</v>
+        <v>0.9073481912144703</v>
       </c>
     </row>
     <row r="650">
@@ -20956,19 +20956,19 @@
         <v>0.0</v>
       </c>
       <c r="H651" t="n">
-        <v>0.4084293975131659</v>
+        <v>0.6087715517861055</v>
       </c>
       <c r="I651" t="n">
-        <v>0.39405926999949253</v>
+        <v>0.39413235541464076</v>
       </c>
       <c r="J651" t="n">
-        <v>0.7207155277530498</v>
+        <v>0.7218824665087411</v>
       </c>
       <c r="K651" t="n">
-        <v>0.21951219512195122</v>
+        <v>0.22644927536231885</v>
       </c>
       <c r="L651" t="n">
-        <v>0.914043919562437</v>
+        <v>0.9165761210817421</v>
       </c>
     </row>
     <row r="652">
@@ -20994,19 +20994,19 @@
         <v>0.0</v>
       </c>
       <c r="H652" t="n">
-        <v>0.41117127436510326</v>
+        <v>0.6177300732549746</v>
       </c>
       <c r="I652" t="n">
-        <v>0.39772928548260494</v>
+        <v>0.39745861122424947</v>
       </c>
       <c r="J652" t="n">
-        <v>0.7144270900313212</v>
+        <v>0.7012659628967686</v>
       </c>
       <c r="K652" t="n">
-        <v>0.24342745861733203</v>
+        <v>0.2360717658168083</v>
       </c>
       <c r="L652" t="n">
-        <v>0.9164952335219553</v>
+        <v>0.9166430161987512</v>
       </c>
     </row>
     <row r="653">
@@ -21060,19 +21060,19 @@
         <v>0.0</v>
       </c>
       <c r="H654" t="n">
-        <v>0.40226638462836917</v>
+        <v>0.6147523113255977</v>
       </c>
       <c r="I654" t="n">
-        <v>0.3898255956762787</v>
+        <v>0.3897486977634522</v>
       </c>
       <c r="J654" t="n">
-        <v>0.4774245070971332</v>
+        <v>0.49230598166244816</v>
       </c>
       <c r="K654" t="n">
-        <v>0.07864476386036962</v>
+        <v>0.08600301010535369</v>
       </c>
       <c r="L654" t="n">
-        <v>0.9322874696385198</v>
+        <v>0.9339580493281249</v>
       </c>
     </row>
     <row r="655">
@@ -21098,19 +21098,19 @@
         <v>0.0</v>
       </c>
       <c r="H655" t="n">
-        <v>0.39154689734988135</v>
+        <v>0.6012002548872263</v>
       </c>
       <c r="I655" t="n">
-        <v>0.3794775254949484</v>
+        <v>0.3794390419576388</v>
       </c>
       <c r="J655" t="n">
-        <v>0.44478406853461583</v>
+        <v>0.45324480544798407</v>
       </c>
       <c r="K655" t="n">
-        <v>0.10109289617486339</v>
+        <v>0.07928679817905918</v>
       </c>
       <c r="L655" t="n">
-        <v>0.9297547106764005</v>
+        <v>0.9354602359592696</v>
       </c>
     </row>
     <row r="656">
@@ -21164,7 +21164,7 @@
         <v>0.0</v>
       </c>
       <c r="H657" t="n">
-        <v>0.3416373917585384</v>
+        <v>0.4971601406935966</v>
       </c>
       <c r="I657" t="n">
         <v>0.3289866146083841</v>
@@ -21173,10 +21173,10 @@
         <v>0.8223011231827194</v>
       </c>
       <c r="K657" t="n">
-        <v>0.4175824175824176</v>
+        <v>0.3006872852233677</v>
       </c>
       <c r="L657" t="n">
-        <v>0.9149052040342344</v>
+        <v>0.9187778833609818</v>
       </c>
     </row>
     <row r="658">
@@ -21202,7 +21202,7 @@
         <v>0.0</v>
       </c>
       <c r="H658" t="n">
-        <v>0.34126885929276746</v>
+        <v>0.4970630829314268</v>
       </c>
       <c r="I658" t="n">
         <v>0.329015058695328</v>
@@ -21211,10 +21211,10 @@
         <v>0.8247204164083596</v>
       </c>
       <c r="K658" t="n">
-        <v>0.30122591943957966</v>
+        <v>0.2996575342465753</v>
       </c>
       <c r="L658" t="n">
-        <v>0.9181568936747845</v>
+        <v>0.9188360668939414</v>
       </c>
     </row>
     <row r="659">
@@ -21268,19 +21268,19 @@
         <v>0.0</v>
       </c>
       <c r="H660" t="n">
-        <v>0.41239908875072717</v>
+        <v>0.6194946590421578</v>
       </c>
       <c r="I660" t="n">
-        <v>0.3978111404484783</v>
+        <v>0.3978860364996985</v>
       </c>
       <c r="J660" t="n">
-        <v>0.7207155277530498</v>
+        <v>0.7218824665087411</v>
       </c>
       <c r="K660" t="n">
-        <v>0.2655860349127182</v>
+        <v>0.2413452027695351</v>
       </c>
       <c r="L660" t="n">
-        <v>0.9248274555444285</v>
+        <v>0.9291488375895997</v>
       </c>
     </row>
     <row r="661">
@@ -21306,7 +21306,7 @@
         <v>0.0</v>
       </c>
       <c r="H661" t="n">
-        <v>0.4121570929485159</v>
+        <v>0.6200137368306199</v>
       </c>
       <c r="I661" t="n">
         <v>0.39821883894647914</v>
@@ -21315,10 +21315,10 @@
         <v>0.7203710343849129</v>
       </c>
       <c r="K661" t="n">
-        <v>0.25</v>
+        <v>0.23308270676691728</v>
       </c>
       <c r="L661" t="n">
-        <v>0.9290406213575312</v>
+        <v>0.9296750540121773</v>
       </c>
     </row>
     <row r="662">
@@ -21372,19 +21372,19 @@
         <v>0.0</v>
       </c>
       <c r="H663" t="n">
-        <v>0.4061576749244702</v>
+        <v>0.6262951219214008</v>
       </c>
       <c r="I663" t="n">
-        <v>0.39354816562449607</v>
+        <v>0.3934702174673352</v>
       </c>
       <c r="J663" t="n">
-        <v>0.4774245070971332</v>
+        <v>0.49230598166244816</v>
       </c>
       <c r="K663" t="n">
-        <v>0.14923076923076922</v>
+        <v>0.10452322738386308</v>
       </c>
       <c r="L663" t="n">
-        <v>0.9341802789505095</v>
+        <v>0.9394058648916075</v>
       </c>
     </row>
     <row r="664">
@@ -21410,7 +21410,7 @@
         <v>0.0</v>
       </c>
       <c r="H664" t="n">
-        <v>0.40610330357618973</v>
+        <v>0.6262951219214008</v>
       </c>
       <c r="I664" t="n">
         <v>0.3934702174673352</v>
@@ -21419,10 +21419,10 @@
         <v>0.49230598166244816</v>
       </c>
       <c r="K664" t="n">
-        <v>0.10452322738386308</v>
+        <v>0.083986562150056</v>
       </c>
       <c r="L664" t="n">
-        <v>0.9394058648916075</v>
+        <v>0.9429302163969537</v>
       </c>
     </row>
     <row r="665">

--- a/ForegroundJobScheduler/results/offline results/summary dynamic (windows,granularity).xlsx
+++ b/ForegroundJobScheduler/results/offline results/summary dynamic (windows,granularity).xlsx
@@ -18979,11 +18979,21 @@
       <c r="G594" t="n">
         <v>0.0</v>
       </c>
-      <c r="H594"/>
-      <c r="I594"/>
-      <c r="J594"/>
-      <c r="K594"/>
-      <c r="L594"/>
+      <c r="H594" t="n">
+        <v>0.43933572991715036</v>
+      </c>
+      <c r="I594" t="n">
+        <v>0.36960604614567427</v>
+      </c>
+      <c r="J594" t="n">
+        <v>0.9106136004400948</v>
+      </c>
+      <c r="K594" t="n">
+        <v>0.8445229681978799</v>
+      </c>
+      <c r="L594" t="n">
+        <v>0.6874283451107915</v>
+      </c>
     </row>
     <row r="595">
       <c r="A595" t="s">
@@ -19007,11 +19017,21 @@
       <c r="G595" t="n">
         <v>0.0</v>
       </c>
-      <c r="H595"/>
-      <c r="I595"/>
-      <c r="J595"/>
-      <c r="K595"/>
-      <c r="L595"/>
+      <c r="H595" t="n">
+        <v>0.48423863851910853</v>
+      </c>
+      <c r="I595" t="n">
+        <v>0.4022184443455807</v>
+      </c>
+      <c r="J595" t="n">
+        <v>0.8779903756402838</v>
+      </c>
+      <c r="K595" t="n">
+        <v>0.7843971631205674</v>
+      </c>
+      <c r="L595" t="n">
+        <v>0.6901978652756392</v>
+      </c>
     </row>
     <row r="596">
       <c r="A596" t="s">
@@ -19036,19 +19056,19 @@
         <v>0.0</v>
       </c>
       <c r="H596" t="n">
-        <v>0.3951679717153262</v>
+        <v>0.5011882329081264</v>
       </c>
       <c r="I596" t="n">
-        <v>0.3306209318731886</v>
+        <v>0.4134237997711174</v>
       </c>
       <c r="J596" t="n">
-        <v>0.9161248347373276</v>
+        <v>0.8392876498269618</v>
       </c>
       <c r="K596" t="n">
-        <v>0.7867647058823529</v>
+        <v>0.765142150803461</v>
       </c>
       <c r="L596" t="n">
-        <v>0.694080836068078</v>
+        <v>0.6924412182420704</v>
       </c>
     </row>
     <row r="597">
@@ -19074,19 +19094,19 @@
         <v>0.0</v>
       </c>
       <c r="H597" t="n">
-        <v>0.4000562195693184</v>
+        <v>0.5161526142090539</v>
       </c>
       <c r="I597" t="n">
-        <v>0.33397290940504104</v>
+        <v>0.42310537659419634</v>
       </c>
       <c r="J597" t="n">
-        <v>0.911746247809462</v>
+        <v>0.7804995234847848</v>
       </c>
       <c r="K597" t="n">
-        <v>0.7847058823529411</v>
+        <v>0.700374531835206</v>
       </c>
       <c r="L597" t="n">
-        <v>0.6950309706965505</v>
+        <v>0.6972334407124169</v>
       </c>
     </row>
     <row r="598">
@@ -19139,11 +19159,21 @@
       <c r="G599" t="n">
         <v>0.0</v>
       </c>
-      <c r="H599"/>
-      <c r="I599"/>
-      <c r="J599"/>
-      <c r="K599"/>
-      <c r="L599"/>
+      <c r="H599" t="n">
+        <v>0.5258818413943092</v>
+      </c>
+      <c r="I599" t="n">
+        <v>0.43881706781248264</v>
+      </c>
+      <c r="J599" t="n">
+        <v>0.8809517436038439</v>
+      </c>
+      <c r="K599" t="n">
+        <v>0.7163601161665053</v>
+      </c>
+      <c r="L599" t="n">
+        <v>0.6977263445964222</v>
+      </c>
     </row>
     <row r="600">
       <c r="A600" t="s">
@@ -19167,11 +19197,21 @@
       <c r="G600" t="n">
         <v>0.0</v>
       </c>
-      <c r="H600"/>
-      <c r="I600"/>
-      <c r="J600"/>
-      <c r="K600"/>
-      <c r="L600"/>
+      <c r="H600" t="n">
+        <v>0.5660739552191306</v>
+      </c>
+      <c r="I600" t="n">
+        <v>0.4642289262932055</v>
+      </c>
+      <c r="J600" t="n">
+        <v>0.8452001896127382</v>
+      </c>
+      <c r="K600" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L600" t="n">
+        <v>0.6982703701344206</v>
+      </c>
     </row>
     <row r="601">
       <c r="A601" t="s">
@@ -19196,19 +19236,19 @@
         <v>0.0</v>
       </c>
       <c r="H601" t="n">
-        <v>0.5195576945404589</v>
+        <v>0.578932630813466</v>
       </c>
       <c r="I601" t="n">
-        <v>0.4253569130514353</v>
+        <v>0.47263243682214645</v>
       </c>
       <c r="J601" t="n">
-        <v>0.8747484274576497</v>
+        <v>0.8020343431492979</v>
       </c>
       <c r="K601" t="n">
-        <v>0.6738382099827883</v>
+        <v>0.6705069124423964</v>
       </c>
       <c r="L601" t="n">
-        <v>0.6991540753351777</v>
+        <v>0.7022539568691891</v>
       </c>
     </row>
     <row r="602">
@@ -19234,19 +19274,19 @@
         <v>0.0</v>
       </c>
       <c r="H602" t="n">
-        <v>0.531414080112901</v>
+        <v>0.5864464789220277</v>
       </c>
       <c r="I602" t="n">
-        <v>0.4347535988709464</v>
+        <v>0.4770168242773721</v>
       </c>
       <c r="J602" t="n">
-        <v>0.871251222979297</v>
+        <v>0.7486929103678421</v>
       </c>
       <c r="K602" t="n">
-        <v>0.6679904686258936</v>
+        <v>0.6212603437301082</v>
       </c>
       <c r="L602" t="n">
-        <v>0.7014587350507699</v>
+        <v>0.7058303219891052</v>
       </c>
     </row>
     <row r="603">
@@ -19299,11 +19339,21 @@
       <c r="G604" t="n">
         <v>0.0</v>
       </c>
-      <c r="H604"/>
-      <c r="I604"/>
-      <c r="J604"/>
-      <c r="K604"/>
-      <c r="L604"/>
+      <c r="H604" t="n">
+        <v>0.6746653600249949</v>
+      </c>
+      <c r="I604" t="n">
+        <v>0.542768143994858</v>
+      </c>
+      <c r="J604" t="n">
+        <v>0.6861897481091886</v>
+      </c>
+      <c r="K604" t="n">
+        <v>0.35874277456647397</v>
+      </c>
+      <c r="L604" t="n">
+        <v>0.7388558954015164</v>
+      </c>
     </row>
     <row r="605">
       <c r="A605" t="s">
@@ -19327,11 +19377,21 @@
       <c r="G605" t="n">
         <v>0.0</v>
       </c>
-      <c r="H605"/>
-      <c r="I605"/>
-      <c r="J605"/>
-      <c r="K605"/>
-      <c r="L605"/>
+      <c r="H605" t="n">
+        <v>0.6864843599173236</v>
+      </c>
+      <c r="I605" t="n">
+        <v>0.5470019811919065</v>
+      </c>
+      <c r="J605" t="n">
+        <v>0.6336810180404148</v>
+      </c>
+      <c r="K605" t="n">
+        <v>0.3447645818692902</v>
+      </c>
+      <c r="L605" t="n">
+        <v>0.7579041243158717</v>
+      </c>
     </row>
     <row r="606">
       <c r="A606" t="s">
@@ -19356,19 +19416,19 @@
         <v>0.0</v>
       </c>
       <c r="H606" t="n">
-        <v>0.664871118471533</v>
+        <v>0.6677581233427605</v>
       </c>
       <c r="I606" t="n">
-        <v>0.5274672877142129</v>
+        <v>0.5297422850362031</v>
       </c>
       <c r="J606" t="n">
-        <v>0.5537242804397607</v>
+        <v>0.5698158430511142</v>
       </c>
       <c r="K606" t="n">
-        <v>0.26042525135981537</v>
+        <v>0.3267363245236632</v>
       </c>
       <c r="L606" t="n">
-        <v>0.7800520657379623</v>
+        <v>0.7653860058090975</v>
       </c>
     </row>
     <row r="607">
@@ -19497,11 +19557,21 @@
       <c r="G610" t="n">
         <v>0.0</v>
       </c>
-      <c r="H610"/>
-      <c r="I610"/>
-      <c r="J610"/>
-      <c r="K610"/>
-      <c r="L610"/>
+      <c r="H610" t="n">
+        <v>0.48725020905848904</v>
+      </c>
+      <c r="I610" t="n">
+        <v>0.4041645581439355</v>
+      </c>
+      <c r="J610" t="n">
+        <v>0.8779903756402838</v>
+      </c>
+      <c r="K610" t="n">
+        <v>0.7855113636363636</v>
+      </c>
+      <c r="L610" t="n">
+        <v>0.7256663122777431</v>
+      </c>
     </row>
     <row r="611">
       <c r="A611" t="s">
@@ -19526,19 +19596,19 @@
         <v>0.0</v>
       </c>
       <c r="H611" t="n">
-        <v>0.39764631936400624</v>
+        <v>0.5043866984806221</v>
       </c>
       <c r="I611" t="n">
-        <v>0.33219488340821934</v>
+        <v>0.4154177574866089</v>
       </c>
       <c r="J611" t="n">
-        <v>0.9161248347373276</v>
+        <v>0.8392876498269618</v>
       </c>
       <c r="K611" t="n">
-        <v>0.7867647058823529</v>
+        <v>0.7642679900744417</v>
       </c>
       <c r="L611" t="n">
-        <v>0.7297580606928956</v>
+        <v>0.7280510765411842</v>
       </c>
     </row>
     <row r="612">
@@ -19564,19 +19634,19 @@
         <v>0.0</v>
       </c>
       <c r="H612" t="n">
-        <v>0.40253840653811085</v>
+        <v>0.5195162808611898</v>
       </c>
       <c r="I612" t="n">
-        <v>0.3355636660807387</v>
+        <v>0.4251478579881783</v>
       </c>
       <c r="J612" t="n">
-        <v>0.911746247809462</v>
+        <v>0.7804995234847848</v>
       </c>
       <c r="K612" t="n">
-        <v>0.7909199522102748</v>
+        <v>0.6929212362911267</v>
       </c>
       <c r="L612" t="n">
-        <v>0.7306252043754813</v>
+        <v>0.7308609719849585</v>
       </c>
     </row>
     <row r="613">
@@ -19667,11 +19737,21 @@
       <c r="G615" t="n">
         <v>0.0</v>
       </c>
-      <c r="H615"/>
-      <c r="I615"/>
-      <c r="J615"/>
-      <c r="K615"/>
-      <c r="L615"/>
+      <c r="H615" t="n">
+        <v>0.5697738609127949</v>
+      </c>
+      <c r="I615" t="n">
+        <v>0.4664812194484638</v>
+      </c>
+      <c r="J615" t="n">
+        <v>0.8452001896127382</v>
+      </c>
+      <c r="K615" t="n">
+        <v>0.7149621212121212</v>
+      </c>
+      <c r="L615" t="n">
+        <v>0.7342234491545669</v>
+      </c>
     </row>
     <row r="616">
       <c r="A616" t="s">
@@ -19696,19 +19776,19 @@
         <v>0.0</v>
       </c>
       <c r="H616" t="n">
-        <v>0.523225376822824</v>
+        <v>0.582743808080352</v>
       </c>
       <c r="I616" t="n">
-        <v>0.42740786264984065</v>
+        <v>0.4749197505858263</v>
       </c>
       <c r="J616" t="n">
-        <v>0.8747484274576497</v>
+        <v>0.8020343431492979</v>
       </c>
       <c r="K616" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6653905053598775</v>
       </c>
       <c r="L616" t="n">
-        <v>0.7351173379289803</v>
+        <v>0.7384289360882339</v>
       </c>
     </row>
     <row r="617">
@@ -19734,19 +19814,19 @@
         <v>0.0</v>
       </c>
       <c r="H617" t="n">
-        <v>0.5350577381045327</v>
+        <v>0.5903486276459453</v>
       </c>
       <c r="I617" t="n">
-        <v>0.436850168346216</v>
+        <v>0.4793274471745551</v>
       </c>
       <c r="J617" t="n">
-        <v>0.871251222979297</v>
+        <v>0.7486929103678421</v>
       </c>
       <c r="K617" t="n">
-        <v>0.6642216788916055</v>
+        <v>0.6296033994334278</v>
       </c>
       <c r="L617" t="n">
-        <v>0.7366304956408137</v>
+        <v>0.738524388020973</v>
       </c>
     </row>
     <row r="618">
@@ -19799,11 +19879,21 @@
       <c r="G619" t="n">
         <v>0.0</v>
       </c>
-      <c r="H619"/>
-      <c r="I619"/>
-      <c r="J619"/>
-      <c r="K619"/>
-      <c r="L619"/>
+      <c r="H619" t="n">
+        <v>0.6791635839395417</v>
+      </c>
+      <c r="I619" t="n">
+        <v>0.5454224590217187</v>
+      </c>
+      <c r="J619" t="n">
+        <v>0.6861897481091886</v>
+      </c>
+      <c r="K619" t="n">
+        <v>0.41191771104279973</v>
+      </c>
+      <c r="L619" t="n">
+        <v>0.7705836477698897</v>
+      </c>
     </row>
     <row r="620">
       <c r="A620" t="s">
@@ -19827,11 +19917,21 @@
       <c r="G620" t="n">
         <v>0.0</v>
       </c>
-      <c r="H620"/>
-      <c r="I620"/>
-      <c r="J620"/>
-      <c r="K620"/>
-      <c r="L620"/>
+      <c r="H620" t="n">
+        <v>0.6918971563627241</v>
+      </c>
+      <c r="I620" t="n">
+        <v>0.5496718560722571</v>
+      </c>
+      <c r="J620" t="n">
+        <v>0.6336810180404148</v>
+      </c>
+      <c r="K620" t="n">
+        <v>0.3839155749636099</v>
+      </c>
+      <c r="L620" t="n">
+        <v>0.7861734527928088</v>
+      </c>
     </row>
     <row r="621">
       <c r="A621" t="s">
@@ -19856,19 +19956,19 @@
         <v>0.0</v>
       </c>
       <c r="H621" t="n">
-        <v>0.6696877745349735</v>
+        <v>0.6731051656863117</v>
       </c>
       <c r="I621" t="n">
-        <v>0.5300487466305224</v>
+        <v>0.5323218880444448</v>
       </c>
       <c r="J621" t="n">
-        <v>0.5537242804397607</v>
+        <v>0.5698158430511142</v>
       </c>
       <c r="K621" t="n">
-        <v>0.27101184172523346</v>
+        <v>0.3698076612251495</v>
       </c>
       <c r="L621" t="n">
-        <v>0.8097955271565496</v>
+        <v>0.7929134851643367</v>
       </c>
     </row>
     <row r="622">
@@ -19894,19 +19994,19 @@
         <v>0.0</v>
       </c>
       <c r="H622" t="n">
-        <v>0.6463248005906922</v>
+        <v>0.6518410752653047</v>
       </c>
       <c r="I622" t="n">
-        <v>0.5089233998963205</v>
+        <v>0.5147972909299947</v>
       </c>
       <c r="J622" t="n">
-        <v>0.5144861271943356</v>
+        <v>0.5114678209247048</v>
       </c>
       <c r="K622" t="n">
-        <v>0.2515977127480659</v>
+        <v>0.3472949389179756</v>
       </c>
       <c r="L622" t="n">
-        <v>0.8149195998614804</v>
+        <v>0.7963852568034544</v>
       </c>
     </row>
     <row r="623">
@@ -19997,11 +20097,21 @@
       <c r="G625" t="n">
         <v>0.0</v>
       </c>
-      <c r="H625"/>
-      <c r="I625"/>
-      <c r="J625"/>
-      <c r="K625"/>
-      <c r="L625"/>
+      <c r="H625" t="n">
+        <v>0.4902166507372916</v>
+      </c>
+      <c r="I625" t="n">
+        <v>0.40610627728844717</v>
+      </c>
+      <c r="J625" t="n">
+        <v>0.8779903756402838</v>
+      </c>
+      <c r="K625" t="n">
+        <v>0.7855113636363636</v>
+      </c>
+      <c r="L625" t="n">
+        <v>0.7510199592540026</v>
+      </c>
     </row>
     <row r="626">
       <c r="A626" t="s">
@@ -20026,19 +20136,19 @@
         <v>0.0</v>
       </c>
       <c r="H626" t="n">
-        <v>0.4001657929527603</v>
+        <v>0.5075518401139885</v>
       </c>
       <c r="I626" t="n">
-        <v>0.33377470454557234</v>
+        <v>0.41740925109870847</v>
       </c>
       <c r="J626" t="n">
-        <v>0.9161248347373276</v>
+        <v>0.8392876498269618</v>
       </c>
       <c r="K626" t="n">
-        <v>0.7982565379825654</v>
+        <v>0.7617866004962779</v>
       </c>
       <c r="L626" t="n">
-        <v>0.7552734837911147</v>
+        <v>0.7534969079971394</v>
       </c>
     </row>
     <row r="627">
@@ -20064,19 +20174,19 @@
         <v>0.0</v>
       </c>
       <c r="H627" t="n">
-        <v>0.4050261428558667</v>
+        <v>0.5228536884615307</v>
       </c>
       <c r="I627" t="n">
-        <v>0.3371616381151479</v>
+        <v>0.42718721082589717</v>
       </c>
       <c r="J627" t="n">
-        <v>0.911746247809462</v>
+        <v>0.7804995234847848</v>
       </c>
       <c r="K627" t="n">
-        <v>0.7954271961492179</v>
+        <v>0.6962663975782039</v>
       </c>
       <c r="L627" t="n">
-        <v>0.756168949314151</v>
+        <v>0.7563179376559658</v>
       </c>
     </row>
     <row r="628">
@@ -20167,11 +20277,21 @@
       <c r="G630" t="n">
         <v>0.0</v>
       </c>
-      <c r="H630"/>
-      <c r="I630"/>
-      <c r="J630"/>
-      <c r="K630"/>
-      <c r="L630"/>
+      <c r="H630" t="n">
+        <v>0.5734370192879824</v>
+      </c>
+      <c r="I630" t="n">
+        <v>0.4687334518512898</v>
+      </c>
+      <c r="J630" t="n">
+        <v>0.8452001896127382</v>
+      </c>
+      <c r="K630" t="n">
+        <v>0.7225433526011561</v>
+      </c>
+      <c r="L630" t="n">
+        <v>0.7597512179072161</v>
+      </c>
     </row>
     <row r="631">
       <c r="A631" t="s">
@@ -20196,19 +20316,19 @@
         <v>0.0</v>
       </c>
       <c r="H631" t="n">
-        <v>0.5270624346875532</v>
+        <v>0.5865252285025927</v>
       </c>
       <c r="I631" t="n">
-        <v>0.4294664103854775</v>
+        <v>0.4772067285745426</v>
       </c>
       <c r="J631" t="n">
-        <v>0.8747484274576497</v>
+        <v>0.8020343431492979</v>
       </c>
       <c r="K631" t="n">
-        <v>0.7339015151515151</v>
+        <v>0.6769983686786297</v>
       </c>
       <c r="L631" t="n">
-        <v>0.7609435125539469</v>
+        <v>0.7627017334130305</v>
       </c>
     </row>
     <row r="632">
@@ -20234,19 +20354,19 @@
         <v>0.0</v>
       </c>
       <c r="H632" t="n">
-        <v>0.5388055900904656</v>
+        <v>0.5942262113472762</v>
       </c>
       <c r="I632" t="n">
-        <v>0.4389548068563916</v>
+        <v>0.48163751499401314</v>
       </c>
       <c r="J632" t="n">
-        <v>0.871251222979297</v>
+        <v>0.7486929103678421</v>
       </c>
       <c r="K632" t="n">
-        <v>0.7021276595744681</v>
+        <v>0.639245283018868</v>
       </c>
       <c r="L632" t="n">
-        <v>0.7615831297470207</v>
+        <v>0.7627154884404651</v>
       </c>
     </row>
     <row r="633">
@@ -20337,11 +20457,21 @@
       <c r="G635" t="n">
         <v>0.0</v>
       </c>
-      <c r="H635"/>
-      <c r="I635"/>
-      <c r="J635"/>
-      <c r="K635"/>
-      <c r="L635"/>
+      <c r="H635" t="n">
+        <v>0.6977032345530563</v>
+      </c>
+      <c r="I635" t="n">
+        <v>0.5523526527124262</v>
+      </c>
+      <c r="J635" t="n">
+        <v>0.6336810180404148</v>
+      </c>
+      <c r="K635" t="n">
+        <v>0.40598827470686766</v>
+      </c>
+      <c r="L635" t="n">
+        <v>0.8077113486123649</v>
+      </c>
     </row>
     <row r="636">
       <c r="A636" t="s">
@@ -20366,19 +20496,19 @@
         <v>0.0</v>
       </c>
       <c r="H636" t="n">
-        <v>0.674554146398359</v>
+        <v>0.678854952588356</v>
       </c>
       <c r="I636" t="n">
-        <v>0.5326386483026707</v>
+        <v>0.5349117993026331</v>
       </c>
       <c r="J636" t="n">
-        <v>0.5537242804397607</v>
+        <v>0.5698158430511142</v>
       </c>
       <c r="K636" t="n">
-        <v>0.30727951469902004</v>
+        <v>0.38602093312045416</v>
       </c>
       <c r="L636" t="n">
-        <v>0.8348096764937057</v>
+        <v>0.8171351470229852</v>
       </c>
     </row>
     <row r="637">
@@ -20404,19 +20534,19 @@
         <v>0.0</v>
       </c>
       <c r="H637" t="n">
-        <v>0.6514365794406165</v>
+        <v>0.6564313935436045</v>
       </c>
       <c r="I637" t="n">
-        <v>0.5114151500503523</v>
+        <v>0.5173046380550733</v>
       </c>
       <c r="J637" t="n">
-        <v>0.5144861271943356</v>
+        <v>0.5114678209247048</v>
       </c>
       <c r="K637" t="n">
-        <v>0.2879700810305423</v>
+        <v>0.360797237915882</v>
       </c>
       <c r="L637" t="n">
-        <v>0.840244714235902</v>
+        <v>0.8217533933247058</v>
       </c>
     </row>
     <row r="638">
@@ -20507,11 +20637,21 @@
       <c r="G640" t="n">
         <v>0.0</v>
       </c>
-      <c r="H640"/>
-      <c r="I640"/>
-      <c r="J640"/>
-      <c r="K640"/>
-      <c r="L640"/>
+      <c r="H640" t="n">
+        <v>0.5012667079898299</v>
+      </c>
+      <c r="I640" t="n">
+        <v>0.40997078491007627</v>
+      </c>
+      <c r="J640" t="n">
+        <v>0.8779903756402838</v>
+      </c>
+      <c r="K640" t="n">
+        <v>0.7784172661870503</v>
+      </c>
+      <c r="L640" t="n">
+        <v>0.7979956039355244</v>
+      </c>
     </row>
     <row r="641">
       <c r="A641" t="s">
@@ -20536,19 +20676,19 @@
         <v>0.0</v>
       </c>
       <c r="H641" t="n">
-        <v>0.40912879222290593</v>
+        <v>0.5192217833248969</v>
       </c>
       <c r="I641" t="n">
-        <v>0.33685229220313245</v>
+        <v>0.42138524327496957</v>
       </c>
       <c r="J641" t="n">
-        <v>0.9161248347373276</v>
+        <v>0.8392876498269618</v>
       </c>
       <c r="K641" t="n">
-        <v>0.768361581920904</v>
+        <v>0.7853107344632768</v>
       </c>
       <c r="L641" t="n">
-        <v>0.7983101334408259</v>
+        <v>0.7984621186724774</v>
       </c>
     </row>
     <row r="642">
@@ -20574,19 +20714,19 @@
         <v>0.0</v>
       </c>
       <c r="H642" t="n">
-        <v>0.4056333678668823</v>
+        <v>0.529233409234485</v>
       </c>
       <c r="I642" t="n">
-        <v>0.3341799274594127</v>
+        <v>0.427941394707664</v>
       </c>
       <c r="J642" t="n">
-        <v>0.9163138304939337</v>
+        <v>0.7797026182407675</v>
       </c>
       <c r="K642" t="n">
-        <v>0.7675324675324675</v>
+        <v>0.7094017094017094</v>
       </c>
       <c r="L642" t="n">
-        <v>0.800505130063115</v>
+        <v>0.8032064508979223</v>
       </c>
     </row>
     <row r="643">
@@ -20677,11 +20817,21 @@
       <c r="G645" t="n">
         <v>0.0</v>
       </c>
-      <c r="H645"/>
-      <c r="I645"/>
-      <c r="J645"/>
-      <c r="K645"/>
-      <c r="L645"/>
+      <c r="H645" t="n">
+        <v>0.5868027467693618</v>
+      </c>
+      <c r="I645" t="n">
+        <v>0.4732162158276922</v>
+      </c>
+      <c r="J645" t="n">
+        <v>0.8452001896127382</v>
+      </c>
+      <c r="K645" t="n">
+        <v>0.7121951219512195</v>
+      </c>
+      <c r="L645" t="n">
+        <v>0.8069390632370634</v>
+      </c>
     </row>
     <row r="646">
       <c r="A646" t="s">
@@ -20706,19 +20856,19 @@
         <v>0.0</v>
       </c>
       <c r="H646" t="n">
-        <v>0.5395289007610402</v>
+        <v>0.600281257558126</v>
       </c>
       <c r="I646" t="n">
-        <v>0.4335072769331195</v>
+        <v>0.48177219972897073</v>
       </c>
       <c r="J646" t="n">
-        <v>0.8747484274576497</v>
+        <v>0.8020343431492979</v>
       </c>
       <c r="K646" t="n">
-        <v>0.7229601518026565</v>
+        <v>0.7189922480620154</v>
       </c>
       <c r="L646" t="n">
-        <v>0.8084021563056005</v>
+        <v>0.8070603460163568</v>
       </c>
     </row>
     <row r="647">
@@ -20744,19 +20894,19 @@
         <v>0.0</v>
       </c>
       <c r="H647" t="n">
-        <v>0.5409048584947117</v>
+        <v>0.6022535829018965</v>
       </c>
       <c r="I647" t="n">
-        <v>0.4359472952407806</v>
+        <v>0.48252293375743877</v>
       </c>
       <c r="J647" t="n">
-        <v>0.8721191613430743</v>
+        <v>0.7493064926325311</v>
       </c>
       <c r="K647" t="n">
-        <v>0.6952636282394995</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="L647" t="n">
-        <v>0.8091297781370318</v>
+        <v>0.8074732793608296</v>
       </c>
     </row>
     <row r="648">
@@ -20847,11 +20997,21 @@
       <c r="G650" t="n">
         <v>0.0</v>
       </c>
-      <c r="H650"/>
-      <c r="I650"/>
-      <c r="J650"/>
-      <c r="K650"/>
-      <c r="L650"/>
+      <c r="H650" t="n">
+        <v>0.71525749547652</v>
+      </c>
+      <c r="I650" t="n">
+        <v>0.5576743667337453</v>
+      </c>
+      <c r="J650" t="n">
+        <v>0.6336810180404148</v>
+      </c>
+      <c r="K650" t="n">
+        <v>0.42965986394557826</v>
+      </c>
+      <c r="L650" t="n">
+        <v>0.843509852077368</v>
+      </c>
     </row>
     <row r="651">
       <c r="A651" t="s">
@@ -20876,19 +21036,19 @@
         <v>0.0</v>
       </c>
       <c r="H651" t="n">
-        <v>0.691130956950682</v>
+        <v>0.696124941111415</v>
       </c>
       <c r="I651" t="n">
-        <v>0.537783424219706</v>
+        <v>0.5400620592619417</v>
       </c>
       <c r="J651" t="n">
-        <v>0.5537242804397607</v>
+        <v>0.5698158430511142</v>
       </c>
       <c r="K651" t="n">
-        <v>0.3371252882398155</v>
+        <v>0.4130384167636787</v>
       </c>
       <c r="L651" t="n">
-        <v>0.8697464916793282</v>
+        <v>0.851575074729823</v>
       </c>
     </row>
     <row r="652">
@@ -20914,19 +21074,19 @@
         <v>0.0</v>
       </c>
       <c r="H652" t="n">
-        <v>0.6923193806042632</v>
+        <v>0.6924154757033679</v>
       </c>
       <c r="I652" t="n">
-        <v>0.5388107720540392</v>
+        <v>0.5400137550857036</v>
       </c>
       <c r="J652" t="n">
-        <v>0.5551745944113333</v>
+        <v>0.5454240784787254</v>
       </c>
       <c r="K652" t="n">
-        <v>0.2896559821533404</v>
+        <v>0.35559886605244506</v>
       </c>
       <c r="L652" t="n">
-        <v>0.8814838566460301</v>
+        <v>0.861313825689638</v>
       </c>
     </row>
     <row r="653">

--- a/ForegroundJobScheduler/results/offline results/summary dynamic (windows,granularity).xlsx
+++ b/ForegroundJobScheduler/results/offline results/summary dynamic (windows,granularity).xlsx
@@ -19454,19 +19454,19 @@
         <v>0.0</v>
       </c>
       <c r="H607" t="n">
-        <v>0.6413955958642091</v>
+        <v>0.6472586402092391</v>
       </c>
       <c r="I607" t="n">
-        <v>0.5064388281811437</v>
+        <v>0.5122993479857874</v>
       </c>
       <c r="J607" t="n">
-        <v>0.5144861271943356</v>
+        <v>0.5114678209247048</v>
       </c>
       <c r="K607" t="n">
-        <v>0.22768532526475038</v>
+        <v>0.31439807734323794</v>
       </c>
       <c r="L607" t="n">
-        <v>0.789298317142094</v>
+        <v>0.7727356693781093</v>
       </c>
     </row>
     <row r="608">
@@ -21139,11 +21139,21 @@
       <c r="G654" t="n">
         <v>0.0</v>
       </c>
-      <c r="H654"/>
-      <c r="I654"/>
-      <c r="J654"/>
-      <c r="K654"/>
-      <c r="L654"/>
+      <c r="H654" t="n">
+        <v>0.4499835527270503</v>
+      </c>
+      <c r="I654" t="n">
+        <v>0.32270416724130946</v>
+      </c>
+      <c r="J654" t="n">
+        <v>0.8167885617366419</v>
+      </c>
+      <c r="K654" t="n">
+        <v>0.34515366430260047</v>
+      </c>
+      <c r="L654" t="n">
+        <v>0.8828067068193821</v>
+      </c>
     </row>
     <row r="655">
       <c r="A655" t="s">
@@ -21167,11 +21177,21 @@
       <c r="G655" t="n">
         <v>0.0</v>
       </c>
-      <c r="H655"/>
-      <c r="I655"/>
-      <c r="J655"/>
-      <c r="K655"/>
-      <c r="L655"/>
+      <c r="H655" t="n">
+        <v>0.48353058403615123</v>
+      </c>
+      <c r="I655" t="n">
+        <v>0.3390903563821151</v>
+      </c>
+      <c r="J655" t="n">
+        <v>0.7749773219406937</v>
+      </c>
+      <c r="K655" t="n">
+        <v>0.34210526315789475</v>
+      </c>
+      <c r="L655" t="n">
+        <v>0.8865324629385471</v>
+      </c>
     </row>
     <row r="656">
       <c r="A656" t="s">
@@ -21196,19 +21216,19 @@
         <v>0.0</v>
       </c>
       <c r="H656" t="n">
-        <v>0.4669870262909724</v>
+        <v>0.4980910334656068</v>
       </c>
       <c r="I656" t="n">
-        <v>0.3228304363397133</v>
+        <v>0.34506438038352155</v>
       </c>
       <c r="J656" t="n">
-        <v>0.8223011231827194</v>
+        <v>0.6540529910020755</v>
       </c>
       <c r="K656" t="n">
-        <v>0.3094017094017094</v>
+        <v>0.3080895008605852</v>
       </c>
       <c r="L656" t="n">
-        <v>0.888644657147003</v>
+        <v>0.8870926160654822</v>
       </c>
     </row>
     <row r="657">
@@ -21234,19 +21254,19 @@
         <v>0.0</v>
       </c>
       <c r="H657" t="n">
-        <v>0.47595793100010847</v>
+        <v>0.5005519142583473</v>
       </c>
       <c r="I657" t="n">
-        <v>0.32739715494529936</v>
+        <v>0.3431819910434377</v>
       </c>
       <c r="J657" t="n">
-        <v>0.82393122034468</v>
+        <v>0.505634883381731</v>
       </c>
       <c r="K657" t="n">
-        <v>0.30505952380952384</v>
+        <v>0.23155216284987276</v>
       </c>
       <c r="L657" t="n">
-        <v>0.8923376882902249</v>
+        <v>0.8875059863001168</v>
       </c>
     </row>
     <row r="658">
@@ -21299,11 +21319,21 @@
       <c r="G659" t="n">
         <v>0.0</v>
       </c>
-      <c r="H659"/>
-      <c r="I659"/>
-      <c r="J659"/>
-      <c r="K659"/>
-      <c r="L659"/>
+      <c r="H659" t="n">
+        <v>0.5294058160689926</v>
+      </c>
+      <c r="I659" t="n">
+        <v>0.3752252028822324</v>
+      </c>
+      <c r="J659" t="n">
+        <v>0.7571250805167845</v>
+      </c>
+      <c r="K659" t="n">
+        <v>0.2804878048780488</v>
+      </c>
+      <c r="L659" t="n">
+        <v>0.8890335492478857</v>
+      </c>
     </row>
     <row r="660">
       <c r="A660" t="s">
@@ -21327,11 +21357,21 @@
       <c r="G660" t="n">
         <v>0.0</v>
       </c>
-      <c r="H660"/>
-      <c r="I660"/>
-      <c r="J660"/>
-      <c r="K660"/>
-      <c r="L660"/>
+      <c r="H660" t="n">
+        <v>0.568328677123341</v>
+      </c>
+      <c r="I660" t="n">
+        <v>0.3893207973251735</v>
+      </c>
+      <c r="J660" t="n">
+        <v>0.7073274432344693</v>
+      </c>
+      <c r="K660" t="n">
+        <v>0.2840409956076135</v>
+      </c>
+      <c r="L660" t="n">
+        <v>0.8899467362473853</v>
+      </c>
     </row>
     <row r="661">
       <c r="A661" t="s">
@@ -21356,19 +21396,19 @@
         <v>0.0</v>
       </c>
       <c r="H661" t="n">
-        <v>0.5799642044545645</v>
+        <v>0.5673557791369191</v>
       </c>
       <c r="I661" t="n">
-        <v>0.39035048849537646</v>
+        <v>0.3858075881601101</v>
       </c>
       <c r="J661" t="n">
-        <v>0.7218824665087411</v>
+        <v>0.59794298622391</v>
       </c>
       <c r="K661" t="n">
-        <v>0.21232306411323898</v>
+        <v>0.2802631578947368</v>
       </c>
       <c r="L661" t="n">
-        <v>0.8992242976860128</v>
+        <v>0.8927398364745162</v>
       </c>
     </row>
     <row r="662">
@@ -21394,19 +21434,19 @@
         <v>0.0</v>
       </c>
       <c r="H662" t="n">
-        <v>0.5882385638110339</v>
+        <v>0.5555603182794833</v>
       </c>
       <c r="I662" t="n">
-        <v>0.3936384884057515</v>
+        <v>0.37588356086785435</v>
       </c>
       <c r="J662" t="n">
-        <v>0.7012659628967686</v>
+        <v>0.4645016506166872</v>
       </c>
       <c r="K662" t="n">
-        <v>0.216597510373444</v>
+        <v>0.23212536728697356</v>
       </c>
       <c r="L662" t="n">
-        <v>0.8997148783170706</v>
+        <v>0.8941970045894785</v>
       </c>
     </row>
     <row r="663">
@@ -21459,11 +21499,21 @@
       <c r="G664" t="n">
         <v>0.0</v>
       </c>
-      <c r="H664"/>
-      <c r="I664"/>
-      <c r="J664"/>
-      <c r="K664"/>
-      <c r="L664"/>
+      <c r="H664" t="n">
+        <v>0.571549968198251</v>
+      </c>
+      <c r="I664" t="n">
+        <v>0.38948286578088215</v>
+      </c>
+      <c r="J664" t="n">
+        <v>0.5532728850028416</v>
+      </c>
+      <c r="K664" t="n">
+        <v>0.09986945169712794</v>
+      </c>
+      <c r="L664" t="n">
+        <v>0.9015861330477848</v>
+      </c>
     </row>
     <row r="665">
       <c r="A665" t="s">
@@ -21487,11 +21537,21 @@
       <c r="G665" t="n">
         <v>0.0</v>
       </c>
-      <c r="H665"/>
-      <c r="I665"/>
-      <c r="J665"/>
-      <c r="K665"/>
-      <c r="L665"/>
+      <c r="H665" t="n">
+        <v>0.5877342973163854</v>
+      </c>
+      <c r="I665" t="n">
+        <v>0.3904315160877676</v>
+      </c>
+      <c r="J665" t="n">
+        <v>0.5001924589561823</v>
+      </c>
+      <c r="K665" t="n">
+        <v>0.08047722342733189</v>
+      </c>
+      <c r="L665" t="n">
+        <v>0.9094814325269767</v>
+      </c>
     </row>
     <row r="666">
       <c r="A666" t="s">
@@ -21516,19 +21576,19 @@
         <v>0.0</v>
       </c>
       <c r="H666" t="n">
-        <v>0.5850207761993582</v>
+        <v>0.5763048948545014</v>
       </c>
       <c r="I666" t="n">
-        <v>0.38600517706769805</v>
+        <v>0.37895684907579497</v>
       </c>
       <c r="J666" t="n">
-        <v>0.49230598166244816</v>
+        <v>0.4203860564887921</v>
       </c>
       <c r="K666" t="n">
-        <v>0.06917151391290678</v>
+        <v>0.06872733552063547</v>
       </c>
       <c r="L666" t="n">
-        <v>0.9188297109267024</v>
+        <v>0.9118698399520317</v>
       </c>
     </row>
     <row r="667">
@@ -21554,19 +21614,19 @@
         <v>0.0</v>
       </c>
       <c r="H667" t="n">
-        <v>0.5719285315366549</v>
+        <v>0.558504434392288</v>
       </c>
       <c r="I667" t="n">
-        <v>0.37579073453495226</v>
+        <v>0.36557545299455196</v>
       </c>
       <c r="J667" t="n">
-        <v>0.45324480544798407</v>
+        <v>0.3161174023782983</v>
       </c>
       <c r="K667" t="n">
-        <v>0.06013768021821016</v>
+        <v>0.06486994672516452</v>
       </c>
       <c r="L667" t="n">
-        <v>0.9211469745740188</v>
+        <v>0.913568422580177</v>
       </c>
     </row>
     <row r="668">
@@ -21619,11 +21679,21 @@
       <c r="G669" t="n">
         <v>0.0</v>
       </c>
-      <c r="H669"/>
-      <c r="I669"/>
-      <c r="J669"/>
-      <c r="K669"/>
-      <c r="L669"/>
+      <c r="H669" t="n">
+        <v>0.45318535026382484</v>
+      </c>
+      <c r="I669" t="n">
+        <v>0.32425657395028457</v>
+      </c>
+      <c r="J669" t="n">
+        <v>0.8167885617366419</v>
+      </c>
+      <c r="K669" t="n">
+        <v>0.34278959810874704</v>
+      </c>
+      <c r="L669" t="n">
+        <v>0.8952668465912121</v>
+      </c>
     </row>
     <row r="670">
       <c r="A670" t="s">
@@ -21647,11 +21717,21 @@
       <c r="G670" t="n">
         <v>0.0</v>
       </c>
-      <c r="H670"/>
-      <c r="I670"/>
-      <c r="J670"/>
-      <c r="K670"/>
-      <c r="L670"/>
+      <c r="H670" t="n">
+        <v>0.4873382163011842</v>
+      </c>
+      <c r="I670" t="n">
+        <v>0.34072372585807154</v>
+      </c>
+      <c r="J670" t="n">
+        <v>0.7749773219406937</v>
+      </c>
+      <c r="K670" t="n">
+        <v>0.3393939393939394</v>
+      </c>
+      <c r="L670" t="n">
+        <v>0.8990493848330261</v>
+      </c>
     </row>
     <row r="671">
       <c r="A671" t="s">
@@ -21676,19 +21756,19 @@
         <v>0.0</v>
       </c>
       <c r="H671" t="n">
-        <v>0.4708274267516429</v>
+        <v>0.5022395920044564</v>
       </c>
       <c r="I671" t="n">
-        <v>0.32438153467956965</v>
+        <v>0.3467238799546428</v>
       </c>
       <c r="J671" t="n">
-        <v>0.8223011231827194</v>
+        <v>0.6540529910020755</v>
       </c>
       <c r="K671" t="n">
-        <v>0.30560271646859083</v>
+        <v>0.3047945205479452</v>
       </c>
       <c r="L671" t="n">
-        <v>0.9011649149955939</v>
+        <v>0.8996348405112233</v>
       </c>
     </row>
     <row r="672">
@@ -21714,19 +21794,19 @@
         <v>0.0</v>
       </c>
       <c r="H672" t="n">
-        <v>0.4799764034088884</v>
+        <v>0.5048715829818123</v>
       </c>
       <c r="I672" t="n">
-        <v>0.3289743740137328</v>
+        <v>0.3448353587792052</v>
       </c>
       <c r="J672" t="n">
-        <v>0.82393122034468</v>
+        <v>0.505634883381731</v>
       </c>
       <c r="K672" t="n">
-        <v>0.28402366863905326</v>
+        <v>0.2396804260985353</v>
       </c>
       <c r="L672" t="n">
-        <v>0.9032913384129584</v>
+        <v>0.9000462499865552</v>
       </c>
     </row>
     <row r="673">
@@ -21779,11 +21859,21 @@
       <c r="G674" t="n">
         <v>0.0</v>
       </c>
-      <c r="H674"/>
-      <c r="I674"/>
-      <c r="J674"/>
-      <c r="K674"/>
-      <c r="L674"/>
+      <c r="H674" t="n">
+        <v>0.5332582140043395</v>
+      </c>
+      <c r="I674" t="n">
+        <v>0.37702891727217974</v>
+      </c>
+      <c r="J674" t="n">
+        <v>0.7571250805167845</v>
+      </c>
+      <c r="K674" t="n">
+        <v>0.27896341463414637</v>
+      </c>
+      <c r="L674" t="n">
+        <v>0.90159807649897</v>
+      </c>
     </row>
     <row r="675">
       <c r="A675" t="s">
@@ -21807,11 +21897,21 @@
       <c r="G675" t="n">
         <v>0.0</v>
       </c>
-      <c r="H675"/>
-      <c r="I675"/>
-      <c r="J675"/>
-      <c r="K675"/>
-      <c r="L675"/>
+      <c r="H675" t="n">
+        <v>0.5731348277030166</v>
+      </c>
+      <c r="I675" t="n">
+        <v>0.3912034755848064</v>
+      </c>
+      <c r="J675" t="n">
+        <v>0.7073274432344693</v>
+      </c>
+      <c r="K675" t="n">
+        <v>0.2821637426900585</v>
+      </c>
+      <c r="L675" t="n">
+        <v>0.9025365716934554</v>
+      </c>
     </row>
     <row r="676">
       <c r="A676" t="s">
@@ -21836,19 +21936,19 @@
         <v>0.0</v>
       </c>
       <c r="H676" t="n">
-        <v>0.5851954570486164</v>
+        <v>0.5723082724729117</v>
       </c>
       <c r="I676" t="n">
-        <v>0.3922434742788872</v>
+        <v>0.3876714441263957</v>
       </c>
       <c r="J676" t="n">
-        <v>0.7218824665087411</v>
+        <v>0.59794298622391</v>
       </c>
       <c r="K676" t="n">
-        <v>0.21070234113712374</v>
+        <v>0.2670886075949367</v>
       </c>
       <c r="L676" t="n">
-        <v>0.9117513673593164</v>
+        <v>0.9051843997338281</v>
       </c>
     </row>
     <row r="677">
@@ -21874,19 +21974,19 @@
         <v>0.0</v>
       </c>
       <c r="H677" t="n">
-        <v>0.5936649176467061</v>
+        <v>0.5605210771089327</v>
       </c>
       <c r="I677" t="n">
-        <v>0.39555092941048764</v>
+        <v>0.37770210587527414</v>
       </c>
       <c r="J677" t="n">
-        <v>0.7012659628967686</v>
+        <v>0.4645016506166872</v>
       </c>
       <c r="K677" t="n">
-        <v>0.23255813953488372</v>
+        <v>0.24611973392461198</v>
       </c>
       <c r="L677" t="n">
-        <v>0.9116959958080433</v>
+        <v>0.9056774718567747</v>
       </c>
     </row>
     <row r="678">
@@ -21939,11 +22039,21 @@
       <c r="G679" t="n">
         <v>0.0</v>
       </c>
-      <c r="H679"/>
-      <c r="I679"/>
-      <c r="J679"/>
-      <c r="K679"/>
-      <c r="L679"/>
+      <c r="H679" t="n">
+        <v>0.5762908613386801</v>
+      </c>
+      <c r="I679" t="n">
+        <v>0.39136176505818476</v>
+      </c>
+      <c r="J679" t="n">
+        <v>0.5532728850028416</v>
+      </c>
+      <c r="K679" t="n">
+        <v>0.11350293542074363</v>
+      </c>
+      <c r="L679" t="n">
+        <v>0.9131577342506916</v>
+      </c>
     </row>
     <row r="680">
       <c r="A680" t="s">
@@ -21967,11 +22077,21 @@
       <c r="G680" t="n">
         <v>0.0</v>
       </c>
-      <c r="H680"/>
-      <c r="I680"/>
-      <c r="J680"/>
-      <c r="K680"/>
-      <c r="L680"/>
+      <c r="H680" t="n">
+        <v>0.5931750397147315</v>
+      </c>
+      <c r="I680" t="n">
+        <v>0.3923178908341419</v>
+      </c>
+      <c r="J680" t="n">
+        <v>0.5001924589561823</v>
+      </c>
+      <c r="K680" t="n">
+        <v>0.09281115879828326</v>
+      </c>
+      <c r="L680" t="n">
+        <v>0.9206448592331861</v>
+      </c>
     </row>
     <row r="681">
       <c r="A681" t="s">
@@ -21996,19 +22116,19 @@
         <v>0.0</v>
       </c>
       <c r="H681" t="n">
-        <v>0.590598258104122</v>
+        <v>0.5818591998808988</v>
       </c>
       <c r="I681" t="n">
-        <v>0.387876823683643</v>
+        <v>0.38078664782813404</v>
       </c>
       <c r="J681" t="n">
-        <v>0.49230598166244816</v>
+        <v>0.4203860564887921</v>
       </c>
       <c r="K681" t="n">
-        <v>0.07950835413865949</v>
+        <v>0.08002602472348731</v>
       </c>
       <c r="L681" t="n">
-        <v>0.9297568283969114</v>
+        <v>0.9224493281712594</v>
       </c>
     </row>
     <row r="682">
@@ -22034,19 +22154,19 @@
         <v>0.0</v>
       </c>
       <c r="H682" t="n">
-        <v>0.5774728326394031</v>
+        <v>0.5640091401834088</v>
       </c>
       <c r="I682" t="n">
-        <v>0.37761426050598046</v>
+        <v>0.3673426973497851</v>
       </c>
       <c r="J682" t="n">
-        <v>0.45324480544798407</v>
+        <v>0.3161174023782983</v>
       </c>
       <c r="K682" t="n">
-        <v>0.0741507156406277</v>
+        <v>0.07919966652771988</v>
       </c>
       <c r="L682" t="n">
-        <v>0.9309812747987098</v>
+        <v>0.9231476773482178</v>
       </c>
     </row>
     <row r="683">
@@ -22099,11 +22219,21 @@
       <c r="G684" t="n">
         <v>0.0</v>
       </c>
-      <c r="H684"/>
-      <c r="I684"/>
-      <c r="J684"/>
-      <c r="K684"/>
-      <c r="L684"/>
+      <c r="H684" t="n">
+        <v>0.4704390374483808</v>
+      </c>
+      <c r="I684" t="n">
+        <v>0.3257979670447655</v>
+      </c>
+      <c r="J684" t="n">
+        <v>0.8167885617366419</v>
+      </c>
+      <c r="K684" t="n">
+        <v>0.34278959810874704</v>
+      </c>
+      <c r="L684" t="n">
+        <v>0.9001418772601688</v>
+      </c>
     </row>
     <row r="685">
       <c r="A685" t="s">
@@ -22127,11 +22257,21 @@
       <c r="G685" t="n">
         <v>0.0</v>
       </c>
-      <c r="H685"/>
-      <c r="I685"/>
-      <c r="J685"/>
-      <c r="K685"/>
-      <c r="L685"/>
+      <c r="H685" t="n">
+        <v>0.5062659494620965</v>
+      </c>
+      <c r="I685" t="n">
+        <v>0.34234904197648847</v>
+      </c>
+      <c r="J685" t="n">
+        <v>0.7749773219406937</v>
+      </c>
+      <c r="K685" t="n">
+        <v>0.33856502242152464</v>
+      </c>
+      <c r="L685" t="n">
+        <v>0.9013243618498344</v>
+      </c>
     </row>
     <row r="686">
       <c r="A686" t="s">
@@ -22156,19 +22296,19 @@
         <v>0.0</v>
       </c>
       <c r="H686" t="n">
-        <v>0.4893729529827135</v>
+        <v>0.5220297897394212</v>
       </c>
       <c r="I686" t="n">
-        <v>0.3259315349564</v>
+        <v>0.34837542049902137</v>
       </c>
       <c r="J686" t="n">
-        <v>0.8223011231827194</v>
+        <v>0.6540529910020755</v>
       </c>
       <c r="K686" t="n">
-        <v>0.30560271646859083</v>
+        <v>0.3053173241852487</v>
       </c>
       <c r="L686" t="n">
-        <v>0.9060760418681626</v>
+        <v>0.9045435262403273</v>
       </c>
     </row>
     <row r="687">
@@ -22194,19 +22334,19 @@
         <v>0.0</v>
       </c>
       <c r="H687" t="n">
-        <v>0.4989913093880283</v>
+        <v>0.5249837916470484</v>
       </c>
       <c r="I687" t="n">
-        <v>0.33055072613443054</v>
+        <v>0.34647833951809665</v>
       </c>
       <c r="J687" t="n">
-        <v>0.82393122034468</v>
+        <v>0.505634883381731</v>
       </c>
       <c r="K687" t="n">
-        <v>0.2795216741405082</v>
+        <v>0.24021592442645073</v>
       </c>
       <c r="L687" t="n">
-        <v>0.9073481912144703</v>
+        <v>0.9048573855267543</v>
       </c>
     </row>
     <row r="688">
@@ -22259,11 +22399,21 @@
       <c r="G689" t="n">
         <v>0.0</v>
       </c>
-      <c r="H689"/>
-      <c r="I689"/>
-      <c r="J689"/>
-      <c r="K689"/>
-      <c r="L689"/>
+      <c r="H689" t="n">
+        <v>0.5536654605076231</v>
+      </c>
+      <c r="I689" t="n">
+        <v>0.37882369620800105</v>
+      </c>
+      <c r="J689" t="n">
+        <v>0.7571250805167845</v>
+      </c>
+      <c r="K689" t="n">
+        <v>0.29475587703435807</v>
+      </c>
+      <c r="L689" t="n">
+        <v>0.9035214587216901</v>
+      </c>
     </row>
     <row r="690">
       <c r="A690" t="s">
@@ -22287,11 +22437,21 @@
       <c r="G690" t="n">
         <v>0.0</v>
       </c>
-      <c r="H690"/>
-      <c r="I690"/>
-      <c r="J690"/>
-      <c r="K690"/>
-      <c r="L690"/>
+      <c r="H690" t="n">
+        <v>0.5958722750239006</v>
+      </c>
+      <c r="I690" t="n">
+        <v>0.3930775696615516</v>
+      </c>
+      <c r="J690" t="n">
+        <v>0.7073274432344693</v>
+      </c>
+      <c r="K690" t="n">
+        <v>0.28257686676427524</v>
+      </c>
+      <c r="L690" t="n">
+        <v>0.9074636036803269</v>
+      </c>
     </row>
     <row r="691">
       <c r="A691" t="s">
@@ -22316,19 +22476,19 @@
         <v>0.0</v>
       </c>
       <c r="H691" t="n">
-        <v>0.6087715517861055</v>
+        <v>0.5951878590764399</v>
       </c>
       <c r="I691" t="n">
-        <v>0.39413235541464076</v>
+        <v>0.389523451671196</v>
       </c>
       <c r="J691" t="n">
-        <v>0.7218824665087411</v>
+        <v>0.59794298622391</v>
       </c>
       <c r="K691" t="n">
-        <v>0.22644927536231885</v>
+        <v>0.2650273224043716</v>
       </c>
       <c r="L691" t="n">
-        <v>0.9165761210817421</v>
+        <v>0.9076372340769654</v>
       </c>
     </row>
     <row r="692">
@@ -22354,19 +22514,19 @@
         <v>0.0</v>
       </c>
       <c r="H692" t="n">
-        <v>0.6177300732549746</v>
+        <v>0.5830440988779657</v>
       </c>
       <c r="I692" t="n">
-        <v>0.39745861122424947</v>
+        <v>0.37951026937771326</v>
       </c>
       <c r="J692" t="n">
-        <v>0.7012659628967686</v>
+        <v>0.4645016506166872</v>
       </c>
       <c r="K692" t="n">
-        <v>0.2360717658168083</v>
+        <v>0.24705882352941178</v>
       </c>
       <c r="L692" t="n">
-        <v>0.9166430161987512</v>
+        <v>0.9091273126728248</v>
       </c>
     </row>
     <row r="693">
@@ -22419,11 +22579,21 @@
       <c r="G694" t="n">
         <v>0.0</v>
       </c>
-      <c r="H694"/>
-      <c r="I694"/>
-      <c r="J694"/>
-      <c r="K694"/>
-      <c r="L694"/>
+      <c r="H694" t="n">
+        <v>0.5990034922918415</v>
+      </c>
+      <c r="I694" t="n">
+        <v>0.3932406150093703</v>
+      </c>
+      <c r="J694" t="n">
+        <v>0.5532728850028416</v>
+      </c>
+      <c r="K694" t="n">
+        <v>0.13037383177570094</v>
+      </c>
+      <c r="L694" t="n">
+        <v>0.9169693022639718</v>
+      </c>
     </row>
     <row r="695">
       <c r="A695" t="s">
@@ -22447,11 +22617,21 @@
       <c r="G695" t="n">
         <v>0.0</v>
       </c>
-      <c r="H695"/>
-      <c r="I695"/>
-      <c r="J695"/>
-      <c r="K695"/>
-      <c r="L695"/>
+      <c r="H695" t="n">
+        <v>0.6172469081644757</v>
+      </c>
+      <c r="I695" t="n">
+        <v>0.3942038475279497</v>
+      </c>
+      <c r="J695" t="n">
+        <v>0.5001924589561823</v>
+      </c>
+      <c r="K695" t="n">
+        <v>0.10456273764258556</v>
+      </c>
+      <c r="L695" t="n">
+        <v>0.9243604690267471</v>
+      </c>
     </row>
     <row r="696">
       <c r="A696" t="s">
@@ -22476,19 +22656,19 @@
         <v>0.0</v>
       </c>
       <c r="H696" t="n">
-        <v>0.6147523113255977</v>
+        <v>0.6057335929082741</v>
       </c>
       <c r="I696" t="n">
-        <v>0.3897486977634522</v>
+        <v>0.38261600373541454</v>
       </c>
       <c r="J696" t="n">
-        <v>0.49230598166244816</v>
+        <v>0.4203860564887921</v>
       </c>
       <c r="K696" t="n">
-        <v>0.08600301010535369</v>
+        <v>0.0869886643666831</v>
       </c>
       <c r="L696" t="n">
-        <v>0.9339580493281249</v>
+        <v>0.9266214404128075</v>
       </c>
     </row>
     <row r="697">
@@ -22514,19 +22694,19 @@
         <v>0.0</v>
       </c>
       <c r="H697" t="n">
-        <v>0.6012002548872263</v>
+        <v>0.5872916461311323</v>
       </c>
       <c r="I697" t="n">
-        <v>0.3794390419576388</v>
+        <v>0.3691084777578813</v>
       </c>
       <c r="J697" t="n">
-        <v>0.45324480544798407</v>
+        <v>0.3161174023782983</v>
       </c>
       <c r="K697" t="n">
-        <v>0.07928679817905918</v>
+        <v>0.08489042675893888</v>
       </c>
       <c r="L697" t="n">
-        <v>0.9354602359592696</v>
+        <v>0.927575034106412</v>
       </c>
     </row>
     <row r="698">
@@ -22579,11 +22759,21 @@
       <c r="G699" t="n">
         <v>0.0</v>
       </c>
-      <c r="H699"/>
-      <c r="I699"/>
-      <c r="J699"/>
-      <c r="K699"/>
-      <c r="L699"/>
+      <c r="H699" t="n">
+        <v>0.47679379915934084</v>
+      </c>
+      <c r="I699" t="n">
+        <v>0.3288659089912517</v>
+      </c>
+      <c r="J699" t="n">
+        <v>0.8167885617366419</v>
+      </c>
+      <c r="K699" t="n">
+        <v>0.29809725158562367</v>
+      </c>
+      <c r="L699" t="n">
+        <v>0.9129099671599779</v>
+      </c>
     </row>
     <row r="700">
       <c r="A700" t="s">
@@ -22607,11 +22797,21 @@
       <c r="G700" t="n">
         <v>0.0</v>
       </c>
-      <c r="H700"/>
-      <c r="I700"/>
-      <c r="J700"/>
-      <c r="K700"/>
-      <c r="L700"/>
+      <c r="H700" t="n">
+        <v>0.5140557121245286</v>
+      </c>
+      <c r="I700" t="n">
+        <v>0.34558836474101734</v>
+      </c>
+      <c r="J700" t="n">
+        <v>0.7749773219406937</v>
+      </c>
+      <c r="K700" t="n">
+        <v>0.31827956989247314</v>
+      </c>
+      <c r="L700" t="n">
+        <v>0.9141054519445304</v>
+      </c>
     </row>
     <row r="701">
       <c r="A701" t="s">
@@ -22636,19 +22836,19 @@
         <v>0.0</v>
       </c>
       <c r="H701" t="n">
-        <v>0.4971601406935966</v>
+        <v>0.5306319758886412</v>
       </c>
       <c r="I701" t="n">
-        <v>0.3289866146083841</v>
+        <v>0.3516728045262499</v>
       </c>
       <c r="J701" t="n">
-        <v>0.8223011231827194</v>
+        <v>0.6540529910020755</v>
       </c>
       <c r="K701" t="n">
-        <v>0.3006872852233677</v>
+        <v>0.2754385964912281</v>
       </c>
       <c r="L701" t="n">
-        <v>0.9187778833609818</v>
+        <v>0.9147633056967104</v>
       </c>
     </row>
     <row r="702">
@@ -22674,19 +22874,19 @@
         <v>0.0</v>
       </c>
       <c r="H702" t="n">
-        <v>0.4970630829314268</v>
+        <v>0.5315243525290104</v>
       </c>
       <c r="I702" t="n">
-        <v>0.329015058695328</v>
+        <v>0.34931808735014774</v>
       </c>
       <c r="J702" t="n">
-        <v>0.8247204164083596</v>
+        <v>0.49897595256588845</v>
       </c>
       <c r="K702" t="n">
-        <v>0.2996575342465753</v>
+        <v>0.22818791946308725</v>
       </c>
       <c r="L702" t="n">
-        <v>0.9188360668939414</v>
+        <v>0.9169721594538165</v>
       </c>
     </row>
     <row r="703">
@@ -22739,11 +22939,21 @@
       <c r="G704" t="n">
         <v>0.0</v>
       </c>
-      <c r="H704"/>
-      <c r="I704"/>
-      <c r="J704"/>
-      <c r="K704"/>
-      <c r="L704"/>
+      <c r="H704" t="n">
+        <v>0.5613066564745038</v>
+      </c>
+      <c r="I704" t="n">
+        <v>0.3823982046243763</v>
+      </c>
+      <c r="J704" t="n">
+        <v>0.7571250805167845</v>
+      </c>
+      <c r="K704" t="n">
+        <v>0.2782608695652174</v>
+      </c>
+      <c r="L704" t="n">
+        <v>0.9163396103165977</v>
+      </c>
     </row>
     <row r="705">
       <c r="A705" t="s">
@@ -22767,11 +22977,21 @@
       <c r="G705" t="n">
         <v>0.0</v>
       </c>
-      <c r="H705"/>
-      <c r="I705"/>
-      <c r="J705"/>
-      <c r="K705"/>
-      <c r="L705"/>
+      <c r="H705" t="n">
+        <v>0.6057569388787104</v>
+      </c>
+      <c r="I705" t="n">
+        <v>0.3968325818824774</v>
+      </c>
+      <c r="J705" t="n">
+        <v>0.7073274432344693</v>
+      </c>
+      <c r="K705" t="n">
+        <v>0.269774011299435</v>
+      </c>
+      <c r="L705" t="n">
+        <v>0.9205106373806393</v>
+      </c>
     </row>
     <row r="706">
       <c r="A706" t="s">
@@ -22796,19 +23016,19 @@
         <v>0.0</v>
       </c>
       <c r="H706" t="n">
-        <v>0.6194946590421578</v>
+        <v>0.605458038891588</v>
       </c>
       <c r="I706" t="n">
-        <v>0.3978860364996985</v>
+        <v>0.3932434055974481</v>
       </c>
       <c r="J706" t="n">
-        <v>0.7218824665087411</v>
+        <v>0.59794298622391</v>
       </c>
       <c r="K706" t="n">
-        <v>0.2413452027695351</v>
+        <v>0.2623626373626374</v>
       </c>
       <c r="L706" t="n">
-        <v>0.9291488375895997</v>
+        <v>0.9204342789407042</v>
       </c>
     </row>
     <row r="707">
@@ -22834,19 +23054,19 @@
         <v>0.0</v>
       </c>
       <c r="H707" t="n">
-        <v>0.6200137368306199</v>
+        <v>0.5930099565788007</v>
       </c>
       <c r="I707" t="n">
-        <v>0.39821883894647914</v>
+        <v>0.38405070114726325</v>
       </c>
       <c r="J707" t="n">
-        <v>0.7203710343849129</v>
+        <v>0.46849290194070686</v>
       </c>
       <c r="K707" t="n">
-        <v>0.23308270676691728</v>
+        <v>0.23039215686274508</v>
       </c>
       <c r="L707" t="n">
-        <v>0.9296750540121773</v>
+        <v>0.9194778045376911</v>
       </c>
     </row>
     <row r="708">
@@ -22899,11 +23119,21 @@
       <c r="G709" t="n">
         <v>0.0</v>
       </c>
-      <c r="H709"/>
-      <c r="I709"/>
-      <c r="J709"/>
-      <c r="K709"/>
-      <c r="L709"/>
+      <c r="H709" t="n">
+        <v>0.6085356397832048</v>
+      </c>
+      <c r="I709" t="n">
+        <v>0.3969764913443663</v>
+      </c>
+      <c r="J709" t="n">
+        <v>0.5532728850028416</v>
+      </c>
+      <c r="K709" t="n">
+        <v>0.14461045891141944</v>
+      </c>
+      <c r="L709" t="n">
+        <v>0.929956742358367</v>
+      </c>
     </row>
     <row r="710">
       <c r="A710" t="s">
@@ -22927,11 +23157,21 @@
       <c r="G710" t="n">
         <v>0.0</v>
       </c>
-      <c r="H710"/>
-      <c r="I710"/>
-      <c r="J710"/>
-      <c r="K710"/>
-      <c r="L710"/>
+      <c r="H710" t="n">
+        <v>0.6284647069121309</v>
+      </c>
+      <c r="I710" t="n">
+        <v>0.3979660852212036</v>
+      </c>
+      <c r="J710" t="n">
+        <v>0.5001924589561823</v>
+      </c>
+      <c r="K710" t="n">
+        <v>0.12629213483146068</v>
+      </c>
+      <c r="L710" t="n">
+        <v>0.9304810470660383</v>
+      </c>
     </row>
     <row r="711">
       <c r="A711" t="s">
@@ -22956,19 +23196,19 @@
         <v>0.0</v>
       </c>
       <c r="H711" t="n">
-        <v>0.6262951219214008</v>
+        <v>0.6172621901766634</v>
       </c>
       <c r="I711" t="n">
-        <v>0.3934702174673352</v>
+        <v>0.3862675717863953</v>
       </c>
       <c r="J711" t="n">
-        <v>0.49230598166244816</v>
+        <v>0.4203860564887921</v>
       </c>
       <c r="K711" t="n">
-        <v>0.10452322738386308</v>
+        <v>0.10264439805149617</v>
       </c>
       <c r="L711" t="n">
-        <v>0.9394058648916075</v>
+        <v>0.9320101187001362</v>
       </c>
     </row>
     <row r="712">
@@ -22994,19 +23234,19 @@
         <v>0.0</v>
       </c>
       <c r="H712" t="n">
-        <v>0.6262951219214008</v>
+        <v>0.611451926763002</v>
       </c>
       <c r="I712" t="n">
-        <v>0.3934702174673352</v>
+        <v>0.38227641336101936</v>
       </c>
       <c r="J712" t="n">
-        <v>0.49230598166244816</v>
+        <v>0.33756320603350304</v>
       </c>
       <c r="K712" t="n">
-        <v>0.083986562150056</v>
+        <v>0.08910622113556099</v>
       </c>
       <c r="L712" t="n">
-        <v>0.9429302163969537</v>
+        <v>0.9350409962740878</v>
       </c>
     </row>
     <row r="713">
